--- a/data/SEV_v2_-_Training_refresher_for_sess_2_-_Raw_Data.xlsx
+++ b/data/SEV_v2_-_Training_refresher_for_sess_2_-_Raw_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate.sharepoint.com/sites/MayhewFoodSensoryLab/Shared Documents/Sweet Enhancing Volatiles/SEV/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duboisa7\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_1598FE9FF76841E84974819AA397B93FFEE25497" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2075722-DD73-42FA-81D9-A2ADCBD91E71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EC9E9-93D8-421F-AD74-48499F386378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="30">
   <si>
     <t>Participant Code</t>
   </si>
@@ -343,8 +343,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -678,11 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087372E2-7983-48C1-8E8A-255C506998E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A750609-A6AB-4E1E-87D9-235DF0B21BB1}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -691,7 +691,7 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="7" width="18.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -865,6 +865,12 @@
       <c r="A14">
         <v>1006</v>
       </c>
+      <c r="F14" s="8">
+        <v>44735.665051678239</v>
+      </c>
+      <c r="G14" s="8">
+        <v>44735.666112696759</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -908,6 +914,12 @@
       <c r="A19">
         <v>1012</v>
       </c>
+      <c r="F19" s="8">
+        <v>44735.671104664354</v>
+      </c>
+      <c r="G19" s="8">
+        <v>44735.672819432868</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -935,11 +947,23 @@
       <c r="A22">
         <v>1017</v>
       </c>
+      <c r="F22" s="8">
+        <v>44735.791830289352</v>
+      </c>
+      <c r="G22" s="8">
+        <v>44735.793553263888</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1018</v>
       </c>
+      <c r="F23" s="8">
+        <v>44735.792083726854</v>
+      </c>
+      <c r="G23" s="8">
+        <v>44735.793253668984</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -956,16 +980,34 @@
       <c r="A25">
         <v>1021</v>
       </c>
+      <c r="F25" s="8">
+        <v>44735.798255347225</v>
+      </c>
+      <c r="G25" s="8">
+        <v>44735.798908599536</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1022</v>
       </c>
+      <c r="F26" s="8">
+        <v>44735.619166215278</v>
+      </c>
+      <c r="G26" s="8">
+        <v>44735.619945810184</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1023</v>
       </c>
+      <c r="F27" s="8">
+        <v>44735.660299895833</v>
+      </c>
+      <c r="G27" s="8">
+        <v>44735.660976770836</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -1003,6 +1045,12 @@
       <c r="A32">
         <v>1028</v>
       </c>
+      <c r="F32" s="8">
+        <v>44735.659314131946</v>
+      </c>
+      <c r="G32" s="8">
+        <v>44735.659732060187</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -1046,16 +1094,34 @@
       <c r="A37">
         <v>1034</v>
       </c>
+      <c r="F37" s="8">
+        <v>44735.794303738425</v>
+      </c>
+      <c r="G37" s="8">
+        <v>44735.795015104166</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1035</v>
       </c>
+      <c r="F38" s="8">
+        <v>44735.791833761577</v>
+      </c>
+      <c r="G38" s="8">
+        <v>44735.792829039354</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1036</v>
       </c>
+      <c r="F39" s="8">
+        <v>44735.622391377314</v>
+      </c>
+      <c r="G39" s="8">
+        <v>44735.623212245373</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -1065,6 +1131,12 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1039</v>
+      </c>
+      <c r="F41" s="8">
+        <v>44735.746691805558</v>
+      </c>
+      <c r="G41" s="8">
+        <v>44735.747882314812</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1117,7 +1189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44C82F4-47DE-4D36-9583-4169CEAEA5F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B979DC1-437A-478D-ADF8-C81CFA113727}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1226,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DBDDAE-438C-47DB-8B12-1E77413676DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5567F5-4FD4-407F-93E1-F8ACDB1E7701}">
   <sheetPr>
     <tabColor rgb="FF63666A"/>
   </sheetPr>
@@ -1299,17 +1371,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B84768-2F95-4553-BDDB-A260D3E2C589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A7DF13-F68E-4EF2-BEA5-6172A45B8824}">
   <sheetPr>
     <tabColor rgb="FFD90401"/>
   </sheetPr>
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G79" sqref="G79"/>
+      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1666,16 +1738,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E17" s="10">
-        <v>44734.663716944444</v>
+        <v>44735.666112696759</v>
       </c>
       <c r="F17" s="10">
-        <v>44734.663716944444</v>
+        <v>44735.666112696759</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1684,18 +1756,18 @@
         <v>15</v>
       </c>
       <c r="J17" s="17">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E18" s="10">
-        <v>44734.663895601851</v>
+        <v>44735.665989548608</v>
       </c>
       <c r="F18" s="10">
-        <v>44734.663895601851</v>
+        <v>44735.665989548608</v>
       </c>
       <c r="G18">
         <v>5</v>
@@ -1707,21 +1779,21 @@
         <v>17</v>
       </c>
       <c r="J18" s="17">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E19" s="10">
-        <v>44734.66349013889</v>
+        <v>44735.665872083337</v>
       </c>
       <c r="F19" s="10">
-        <v>44734.66349013889</v>
+        <v>44735.665872083337</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -1730,21 +1802,21 @@
         <v>19</v>
       </c>
       <c r="J19" s="17">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E20" s="10">
-        <v>44734.66293835648</v>
+        <v>44735.66567855324</v>
       </c>
       <c r="F20" s="10">
-        <v>44734.66293835648</v>
+        <v>44735.66567855324</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -1753,21 +1825,21 @@
         <v>21</v>
       </c>
       <c r="J20" s="17">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E21" s="10">
-        <v>44734.664123726849</v>
+        <v>44735.665051678239</v>
       </c>
       <c r="F21" s="10">
-        <v>44734.664123726849</v>
+        <v>44735.665051678239</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
@@ -1776,18 +1848,18 @@
         <v>23</v>
       </c>
       <c r="J21" s="17">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E22" s="10">
-        <v>44734.663220995368</v>
+        <v>44735.665549513891</v>
       </c>
       <c r="F22" s="10">
-        <v>44734.663220995368</v>
+        <v>44735.665549513891</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1799,21 +1871,21 @@
         <v>25</v>
       </c>
       <c r="J22" s="17">
-        <v>64</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E23" s="10">
-        <v>44734.758274745371</v>
+        <v>44734.663716944444</v>
       </c>
       <c r="F23" s="10">
-        <v>44734.758274745371</v>
+        <v>44734.663716944444</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1822,21 +1894,21 @@
         <v>15</v>
       </c>
       <c r="J23" s="17">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E24" s="10">
-        <v>44734.75884800926</v>
+        <v>44734.663895601851</v>
       </c>
       <c r="F24" s="10">
-        <v>44734.75884800926</v>
+        <v>44734.663895601851</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
         <v>16</v>
@@ -1845,21 +1917,21 @@
         <v>17</v>
       </c>
       <c r="J24" s="17">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E25" s="10">
-        <v>44734.758739594909</v>
+        <v>44734.66349013889</v>
       </c>
       <c r="F25" s="10">
-        <v>44734.758739594909</v>
+        <v>44734.66349013889</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" t="s">
         <v>18</v>
@@ -1868,21 +1940,21 @@
         <v>19</v>
       </c>
       <c r="J25" s="17">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E26" s="10">
-        <v>44734.758358182873</v>
+        <v>44734.66293835648</v>
       </c>
       <c r="F26" s="10">
-        <v>44734.758358182873</v>
+        <v>44734.66293835648</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
@@ -1891,21 +1963,21 @@
         <v>21</v>
       </c>
       <c r="J26" s="17">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E27" s="10">
-        <v>44734.758441018515</v>
+        <v>44734.664123726849</v>
       </c>
       <c r="F27" s="10">
-        <v>44734.758441018515</v>
+        <v>44734.664123726849</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
@@ -1914,21 +1986,21 @@
         <v>23</v>
       </c>
       <c r="J27" s="17">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E28" s="10">
-        <v>44734.758016689811</v>
+        <v>44734.663220995368</v>
       </c>
       <c r="F28" s="10">
-        <v>44734.758016689811</v>
+        <v>44734.663220995368</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>24</v>
@@ -1937,21 +2009,21 @@
         <v>25</v>
       </c>
       <c r="J28" s="17">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E29" s="10">
-        <v>44734.795692708336</v>
+        <v>44734.758274745371</v>
       </c>
       <c r="F29" s="10">
-        <v>44734.795692708336</v>
+        <v>44734.758274745371</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1960,21 +2032,21 @@
         <v>15</v>
       </c>
       <c r="J29" s="17">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E30" s="10">
-        <v>44734.794990532406</v>
+        <v>44734.75884800926</v>
       </c>
       <c r="F30" s="10">
-        <v>44734.794990532406</v>
+        <v>44734.75884800926</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30" t="s">
         <v>16</v>
@@ -1983,21 +2055,21 @@
         <v>17</v>
       </c>
       <c r="J30" s="17">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E31" s="10">
-        <v>44734.795196087965</v>
+        <v>44734.758739594909</v>
       </c>
       <c r="F31" s="10">
-        <v>44734.795196087965</v>
+        <v>44734.758739594909</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H31" t="s">
         <v>18</v>
@@ -2006,21 +2078,21 @@
         <v>19</v>
       </c>
       <c r="J31" s="17">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E32" s="10">
-        <v>44734.795601527781</v>
+        <v>44734.758358182873</v>
       </c>
       <c r="F32" s="10">
-        <v>44734.795601527781</v>
+        <v>44734.758358182873</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -2029,21 +2101,21 @@
         <v>21</v>
       </c>
       <c r="J32" s="17">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E33" s="10">
-        <v>44734.795472025464</v>
+        <v>44734.758441018515</v>
       </c>
       <c r="F33" s="10">
-        <v>44734.795472025464</v>
+        <v>44734.758441018515</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
@@ -2052,21 +2124,21 @@
         <v>23</v>
       </c>
       <c r="J33" s="17">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E34" s="10">
-        <v>44734.795794594909</v>
+        <v>44734.758016689811</v>
       </c>
       <c r="F34" s="10">
-        <v>44734.795794594909</v>
+        <v>44734.758016689811</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>24</v>
@@ -2075,21 +2147,21 @@
         <v>25</v>
       </c>
       <c r="J34" s="17">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E35" s="10">
-        <v>44734.799933564813</v>
+        <v>44734.795692708336</v>
       </c>
       <c r="F35" s="10">
-        <v>44734.799933564813</v>
+        <v>44734.795692708336</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -2098,21 +2170,21 @@
         <v>15</v>
       </c>
       <c r="J35" s="17">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E36" s="10">
-        <v>44734.800175543984</v>
+        <v>44734.794990532406</v>
       </c>
       <c r="F36" s="10">
-        <v>44734.800175543984</v>
+        <v>44734.794990532406</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>16</v>
@@ -2121,18 +2193,18 @@
         <v>17</v>
       </c>
       <c r="J36" s="17">
-        <v>88</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E37" s="10">
-        <v>44734.800096192128</v>
+        <v>44734.795196087965</v>
       </c>
       <c r="F37" s="10">
-        <v>44734.800096192128</v>
+        <v>44734.795196087965</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -2144,21 +2216,21 @@
         <v>19</v>
       </c>
       <c r="J37" s="17">
-        <v>90</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E38" s="10">
-        <v>44734.800415543985</v>
+        <v>44734.795601527781</v>
       </c>
       <c r="F38" s="10">
-        <v>44734.800415543985</v>
+        <v>44734.795601527781</v>
       </c>
       <c r="G38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
@@ -2167,21 +2239,21 @@
         <v>21</v>
       </c>
       <c r="J38" s="17">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E39" s="10">
-        <v>44734.800339224537</v>
+        <v>44734.795472025464</v>
       </c>
       <c r="F39" s="10">
-        <v>44734.800339224537</v>
+        <v>44734.795472025464</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
@@ -2190,21 +2262,21 @@
         <v>23</v>
       </c>
       <c r="J39" s="17">
-        <v>82</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="E40" s="10">
-        <v>44734.800249351851</v>
+        <v>44734.795794594909</v>
       </c>
       <c r="F40" s="10">
-        <v>44734.800249351851</v>
+        <v>44734.795794594909</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H40" t="s">
         <v>24</v>
@@ -2213,21 +2285,21 @@
         <v>25</v>
       </c>
       <c r="J40" s="17">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E41" s="10">
-        <v>44734.79441988426</v>
+        <v>44735.671104664354</v>
       </c>
       <c r="F41" s="10">
-        <v>44734.79441988426</v>
+        <v>44735.671104664354</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
@@ -2236,21 +2308,21 @@
         <v>15</v>
       </c>
       <c r="J41" s="17">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E42" s="10">
-        <v>44734.794197812502</v>
+        <v>44735.672108009261</v>
       </c>
       <c r="F42" s="10">
-        <v>44734.794197812502</v>
+        <v>44735.672108009261</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -2259,18 +2331,18 @@
         <v>17</v>
       </c>
       <c r="J42" s="17">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E43" s="10">
-        <v>44734.794621157409</v>
+        <v>44735.672819432868</v>
       </c>
       <c r="F43" s="10">
-        <v>44734.794621157409</v>
+        <v>44735.672819432868</v>
       </c>
       <c r="G43">
         <v>6</v>
@@ -2282,21 +2354,21 @@
         <v>19</v>
       </c>
       <c r="J43" s="17">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E44" s="10">
-        <v>44734.794310486111</v>
+        <v>44735.672245428243</v>
       </c>
       <c r="F44" s="10">
-        <v>44734.794310486111</v>
+        <v>44735.672245428243</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
@@ -2305,21 +2377,21 @@
         <v>21</v>
       </c>
       <c r="J44" s="17">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E45" s="10">
-        <v>44734.793970509258</v>
+        <v>44735.67149241898</v>
       </c>
       <c r="F45" s="10">
-        <v>44734.793970509258</v>
+        <v>44735.67149241898</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
         <v>22</v>
@@ -2328,21 +2400,21 @@
         <v>23</v>
       </c>
       <c r="J45" s="17">
-        <v>45</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E46" s="10">
-        <v>44734.794501273151</v>
+        <v>44735.671687326387</v>
       </c>
       <c r="F46" s="10">
-        <v>44734.794501273151</v>
+        <v>44735.671687326387</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
         <v>24</v>
@@ -2351,21 +2423,21 @@
         <v>25</v>
       </c>
       <c r="J46" s="17">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E47" s="10">
-        <v>44734.675901041664</v>
+        <v>44734.799933564813</v>
       </c>
       <c r="F47" s="10">
-        <v>44734.675901041664</v>
+        <v>44734.799933564813</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
@@ -2374,21 +2446,21 @@
         <v>15</v>
       </c>
       <c r="J47" s="17">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E48" s="10">
-        <v>44734.675648078701</v>
+        <v>44734.800175543984</v>
       </c>
       <c r="F48" s="10">
-        <v>44734.675648078701</v>
+        <v>44734.800175543984</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
         <v>16</v>
@@ -2397,21 +2469,21 @@
         <v>17</v>
       </c>
       <c r="J48" s="17">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E49" s="10">
-        <v>44734.678025833331</v>
+        <v>44734.800096192128</v>
       </c>
       <c r="F49" s="10">
-        <v>44734.678025833331</v>
+        <v>44734.800096192128</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
@@ -2420,21 +2492,21 @@
         <v>19</v>
       </c>
       <c r="J49" s="17">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E50" s="10">
-        <v>44734.676364398147</v>
+        <v>44734.800415543985</v>
       </c>
       <c r="F50" s="10">
-        <v>44734.676364398147</v>
+        <v>44734.800415543985</v>
       </c>
       <c r="G50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
@@ -2443,21 +2515,21 @@
         <v>21</v>
       </c>
       <c r="J50" s="17">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E51" s="10">
-        <v>44734.677148530092</v>
+        <v>44734.800339224537</v>
       </c>
       <c r="F51" s="10">
-        <v>44734.677148530092</v>
+        <v>44734.800339224537</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H51" t="s">
         <v>22</v>
@@ -2471,16 +2543,16 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="E52" s="10">
-        <v>44734.677560949072</v>
+        <v>44734.800249351851</v>
       </c>
       <c r="F52" s="10">
-        <v>44734.677560949072</v>
+        <v>44734.800249351851</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H52" t="s">
         <v>24</v>
@@ -2489,21 +2561,21 @@
         <v>25</v>
       </c>
       <c r="J52" s="17">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="E53" s="10">
-        <v>44734.621739178241</v>
+        <v>44734.79441988426</v>
       </c>
       <c r="F53" s="10">
-        <v>44734.621739178241</v>
+        <v>44734.79441988426</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -2512,18 +2584,18 @@
         <v>15</v>
       </c>
       <c r="J53" s="17">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="E54" s="10">
-        <v>44734.621180347225</v>
+        <v>44734.794197812502</v>
       </c>
       <c r="F54" s="10">
-        <v>44734.621180347225</v>
+        <v>44734.794197812502</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -2535,21 +2607,21 @@
         <v>17</v>
       </c>
       <c r="J54" s="17">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="E55" s="10">
-        <v>44734.6215375463</v>
+        <v>44734.794621157409</v>
       </c>
       <c r="F55" s="10">
-        <v>44734.6215375463</v>
+        <v>44734.794621157409</v>
       </c>
       <c r="G55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -2558,21 +2630,21 @@
         <v>19</v>
       </c>
       <c r="J55" s="17">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="E56" s="10">
-        <v>44734.62094267361</v>
+        <v>44734.794310486111</v>
       </c>
       <c r="F56" s="10">
-        <v>44734.62094267361</v>
+        <v>44734.794310486111</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
@@ -2581,21 +2653,21 @@
         <v>21</v>
       </c>
       <c r="J56" s="17">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="E57" s="10">
-        <v>44734.621838437502</v>
+        <v>44734.793970509258</v>
       </c>
       <c r="F57" s="10">
-        <v>44734.621838437502</v>
+        <v>44734.793970509258</v>
       </c>
       <c r="G57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
         <v>22</v>
@@ -2604,21 +2676,21 @@
         <v>23</v>
       </c>
       <c r="J57" s="17">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="E58" s="10">
-        <v>44734.621276018515</v>
+        <v>44734.794501273151</v>
       </c>
       <c r="F58" s="10">
-        <v>44734.621276018515</v>
+        <v>44734.794501273151</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H58" t="s">
         <v>24</v>
@@ -2632,13 +2704,13 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="E59" s="10">
-        <v>44734.7857721412</v>
+        <v>44735.79211962963</v>
       </c>
       <c r="F59" s="10">
-        <v>44734.7857721412</v>
+        <v>44735.79211962963</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -2650,21 +2722,21 @@
         <v>15</v>
       </c>
       <c r="J59" s="17">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="E60" s="10">
-        <v>44734.786140115742</v>
+        <v>44735.791830289352</v>
       </c>
       <c r="F60" s="10">
-        <v>44734.786140115742</v>
+        <v>44735.791830289352</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>16</v>
@@ -2673,21 +2745,21 @@
         <v>17</v>
       </c>
       <c r="J60" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="E61" s="10">
-        <v>44734.785917847221</v>
+        <v>44735.792742685182</v>
       </c>
       <c r="F61" s="10">
-        <v>44734.785917847221</v>
+        <v>44735.792742685182</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" t="s">
         <v>18</v>
@@ -2696,21 +2768,21 @@
         <v>19</v>
       </c>
       <c r="J61" s="17">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="E62" s="10">
-        <v>44734.786344456021</v>
+        <v>44735.793199733795</v>
       </c>
       <c r="F62" s="10">
-        <v>44734.786344456021</v>
+        <v>44735.793199733795</v>
       </c>
       <c r="G62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
@@ -2719,21 +2791,21 @@
         <v>21</v>
       </c>
       <c r="J62" s="17">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="E63" s="10">
-        <v>44734.785501817132</v>
+        <v>44735.792356377315</v>
       </c>
       <c r="F63" s="10">
-        <v>44734.785501817132</v>
+        <v>44735.792356377315</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
         <v>22</v>
@@ -2742,21 +2814,21 @@
         <v>23</v>
       </c>
       <c r="J63" s="17">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="E64" s="10">
-        <v>44734.786055289354</v>
+        <v>44735.793553263888</v>
       </c>
       <c r="F64" s="10">
-        <v>44734.786055289354</v>
+        <v>44735.793553263888</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H64" t="s">
         <v>24</v>
@@ -2765,21 +2837,21 @@
         <v>25</v>
       </c>
       <c r="J64" s="17">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E65" s="10">
-        <v>44734.686553946762</v>
+        <v>44735.793155381944</v>
       </c>
       <c r="F65" s="10">
-        <v>44734.686553946762</v>
+        <v>44735.793155381944</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
@@ -2788,21 +2860,21 @@
         <v>15</v>
       </c>
       <c r="J65" s="17">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E66" s="10">
-        <v>44734.68752230324</v>
+        <v>44735.793253668984</v>
       </c>
       <c r="F66" s="10">
-        <v>44734.68752230324</v>
+        <v>44735.793253668984</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -2811,21 +2883,21 @@
         <v>17</v>
       </c>
       <c r="J66" s="17">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E67" s="10">
-        <v>44734.687689236111</v>
+        <v>44735.792834027779</v>
       </c>
       <c r="F67" s="10">
-        <v>44734.687689236111</v>
+        <v>44735.792834027779</v>
       </c>
       <c r="G67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="s">
         <v>18</v>
@@ -2834,21 +2906,21 @@
         <v>19</v>
       </c>
       <c r="J67" s="17">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E68" s="10">
-        <v>44734.687231157404</v>
+        <v>44735.792380393519</v>
       </c>
       <c r="F68" s="10">
-        <v>44734.687231157404</v>
+        <v>44735.792380393519</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
@@ -2857,21 +2929,21 @@
         <v>21</v>
       </c>
       <c r="J68" s="17">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E69" s="10">
-        <v>44734.687912719906</v>
+        <v>44735.792975520832</v>
       </c>
       <c r="F69" s="10">
-        <v>44734.687912719906</v>
+        <v>44735.792975520832</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H69" t="s">
         <v>22</v>
@@ -2880,21 +2952,21 @@
         <v>23</v>
       </c>
       <c r="J69" s="17">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="E70" s="10">
-        <v>44734.687023495368</v>
+        <v>44735.792083726854</v>
       </c>
       <c r="F70" s="10">
-        <v>44734.687023495368</v>
+        <v>44735.792083726854</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>24</v>
@@ -2903,21 +2975,21 @@
         <v>25</v>
       </c>
       <c r="J70" s="17">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E71" s="10">
-        <v>44734.613674016204</v>
+        <v>44734.675901041664</v>
       </c>
       <c r="F71" s="10">
-        <v>44734.613674016204</v>
+        <v>44734.675901041664</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
@@ -2926,21 +2998,21 @@
         <v>15</v>
       </c>
       <c r="J71" s="17">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E72" s="10">
-        <v>44734.613498310187</v>
+        <v>44734.675648078701</v>
       </c>
       <c r="F72" s="10">
-        <v>44734.613498310187</v>
+        <v>44734.675648078701</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -2949,18 +3021,18 @@
         <v>17</v>
       </c>
       <c r="J72" s="17">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E73" s="10">
-        <v>44734.614035706021</v>
+        <v>44734.678025833331</v>
       </c>
       <c r="F73" s="10">
-        <v>44734.614035706021</v>
+        <v>44734.678025833331</v>
       </c>
       <c r="G73">
         <v>6</v>
@@ -2972,21 +3044,21 @@
         <v>19</v>
       </c>
       <c r="J73" s="17">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E74" s="10">
-        <v>44734.61397046296</v>
+        <v>44734.676364398147</v>
       </c>
       <c r="F74" s="10">
-        <v>44734.61397046296</v>
+        <v>44734.676364398147</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
@@ -2995,18 +3067,18 @@
         <v>21</v>
       </c>
       <c r="J74" s="17">
-        <v>57</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E75" s="10">
-        <v>44734.613891712965</v>
+        <v>44734.677148530092</v>
       </c>
       <c r="F75" s="10">
-        <v>44734.613891712965</v>
+        <v>44734.677148530092</v>
       </c>
       <c r="G75">
         <v>4</v>
@@ -3018,21 +3090,21 @@
         <v>23</v>
       </c>
       <c r="J75" s="17">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E76" s="10">
-        <v>44734.613328692132</v>
+        <v>44734.677560949072</v>
       </c>
       <c r="F76" s="10">
-        <v>44734.613328692132</v>
+        <v>44734.677560949072</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H76" t="s">
         <v>24</v>
@@ -3041,21 +3113,21 @@
         <v>25</v>
       </c>
       <c r="J76" s="17">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E77" s="10">
-        <v>44734.613845162035</v>
+        <v>44735.798908599536</v>
       </c>
       <c r="F77" s="10">
-        <v>44734.613845162035</v>
+        <v>44735.798908599536</v>
       </c>
       <c r="G77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
@@ -3064,21 +3136,21 @@
         <v>15</v>
       </c>
       <c r="J77" s="17">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E78" s="10">
-        <v>44734.613388020836</v>
+        <v>44735.798722893516</v>
       </c>
       <c r="F78" s="10">
-        <v>44734.613388020836</v>
+        <v>44735.798722893516</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H78" t="s">
         <v>16</v>
@@ -3087,21 +3159,21 @@
         <v>17</v>
       </c>
       <c r="J78" s="17">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E79" s="10">
-        <v>44734.613762152774</v>
+        <v>44735.798629490739</v>
       </c>
       <c r="F79" s="10">
-        <v>44734.613762152774</v>
+        <v>44735.798629490739</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="s">
         <v>18</v>
@@ -3110,21 +3182,21 @@
         <v>19</v>
       </c>
       <c r="J79" s="17">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E80" s="10">
-        <v>44734.613964525466</v>
+        <v>44735.798383113426</v>
       </c>
       <c r="F80" s="10">
-        <v>44734.613964525466</v>
+        <v>44735.798383113426</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>20</v>
@@ -3133,21 +3205,21 @@
         <v>21</v>
       </c>
       <c r="J80" s="17">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E81" s="10">
-        <v>44734.613470636577</v>
+        <v>44735.798818634263</v>
       </c>
       <c r="F81" s="10">
-        <v>44734.613470636577</v>
+        <v>44735.798818634263</v>
       </c>
       <c r="G81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H81" t="s">
         <v>22</v>
@@ -3156,21 +3228,21 @@
         <v>23</v>
       </c>
       <c r="J81" s="17">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="E82" s="10">
-        <v>44734.61362744213</v>
+        <v>44735.798255347225</v>
       </c>
       <c r="F82" s="10">
-        <v>44734.61362744213</v>
+        <v>44735.798255347225</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>24</v>
@@ -3179,21 +3251,21 @@
         <v>25</v>
       </c>
       <c r="J82" s="17">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="E83" s="10">
-        <v>44734.625561203706</v>
+        <v>44735.6198540162</v>
       </c>
       <c r="F83" s="10">
-        <v>44734.625561203706</v>
+        <v>44735.6198540162</v>
       </c>
       <c r="G83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -3202,21 +3274,21 @@
         <v>15</v>
       </c>
       <c r="J83" s="17">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="E84" s="10">
-        <v>44734.62499916667</v>
+        <v>44735.619945810184</v>
       </c>
       <c r="F84" s="10">
-        <v>44734.62499916667</v>
+        <v>44735.619945810184</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H84" t="s">
         <v>16</v>
@@ -3225,21 +3297,21 @@
         <v>17</v>
       </c>
       <c r="J84" s="17">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="E85" s="10">
-        <v>44734.624931655089</v>
+        <v>44735.619166215278</v>
       </c>
       <c r="F85" s="10">
-        <v>44734.624931655089</v>
+        <v>44735.619166215278</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
         <v>18</v>
@@ -3248,21 +3320,21 @@
         <v>19</v>
       </c>
       <c r="J85" s="17">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="E86" s="10">
-        <v>44734.625486157405</v>
+        <v>44735.619682662036</v>
       </c>
       <c r="F86" s="10">
-        <v>44734.625486157405</v>
+        <v>44735.619682662036</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
@@ -3271,21 +3343,21 @@
         <v>21</v>
       </c>
       <c r="J86" s="17">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="E87" s="10">
-        <v>44734.624846736115</v>
+        <v>44735.619552291668</v>
       </c>
       <c r="F87" s="10">
-        <v>44734.624846736115</v>
+        <v>44735.619552291668</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
         <v>22</v>
@@ -3294,21 +3366,21 @@
         <v>23</v>
       </c>
       <c r="J87" s="17">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="E88" s="10">
-        <v>44734.625403518519</v>
+        <v>44735.619315358796</v>
       </c>
       <c r="F88" s="10">
-        <v>44734.625403518519</v>
+        <v>44735.619315358796</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>24</v>
@@ -3317,6 +3389,1662 @@
         <v>25</v>
       </c>
       <c r="J88" s="17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1023</v>
+      </c>
+      <c r="E89" s="10">
+        <v>44735.660299895833</v>
+      </c>
+      <c r="F89" s="10">
+        <v>44735.660299895833</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1023</v>
+      </c>
+      <c r="E90" s="10">
+        <v>44735.660634050924</v>
+      </c>
+      <c r="F90" s="10">
+        <v>44735.660634050924</v>
+      </c>
+      <c r="G90">
+        <v>3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1023</v>
+      </c>
+      <c r="E91" s="10">
+        <v>44735.660764074077</v>
+      </c>
+      <c r="F91" s="10">
+        <v>44735.660764074077</v>
+      </c>
+      <c r="G91">
+        <v>4</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1023</v>
+      </c>
+      <c r="E92" s="10">
+        <v>44735.660879293981</v>
+      </c>
+      <c r="F92" s="10">
+        <v>44735.660879293981</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1023</v>
+      </c>
+      <c r="E93" s="10">
+        <v>44735.660540983794</v>
+      </c>
+      <c r="F93" s="10">
+        <v>44735.660540983794</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1023</v>
+      </c>
+      <c r="E94" s="10">
+        <v>44735.660976770836</v>
+      </c>
+      <c r="F94" s="10">
+        <v>44735.660976770836</v>
+      </c>
+      <c r="G94">
+        <v>6</v>
+      </c>
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1025</v>
+      </c>
+      <c r="E95" s="10">
+        <v>44734.621739178241</v>
+      </c>
+      <c r="F95" s="10">
+        <v>44734.621739178241</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1025</v>
+      </c>
+      <c r="E96" s="10">
+        <v>44734.621180347225</v>
+      </c>
+      <c r="F96" s="10">
+        <v>44734.621180347225</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" s="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1025</v>
+      </c>
+      <c r="E97" s="10">
+        <v>44734.6215375463</v>
+      </c>
+      <c r="F97" s="10">
+        <v>44734.6215375463</v>
+      </c>
+      <c r="G97">
+        <v>4</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="17">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1025</v>
+      </c>
+      <c r="E98" s="10">
+        <v>44734.62094267361</v>
+      </c>
+      <c r="F98" s="10">
+        <v>44734.62094267361</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1025</v>
+      </c>
+      <c r="E99" s="10">
+        <v>44734.621838437502</v>
+      </c>
+      <c r="F99" s="10">
+        <v>44734.621838437502</v>
+      </c>
+      <c r="G99">
+        <v>6</v>
+      </c>
+      <c r="H99" t="s">
+        <v>22</v>
+      </c>
+      <c r="I99" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1025</v>
+      </c>
+      <c r="E100" s="10">
+        <v>44734.621276018515</v>
+      </c>
+      <c r="F100" s="10">
+        <v>44734.621276018515</v>
+      </c>
+      <c r="G100">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>24</v>
+      </c>
+      <c r="I100" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1026</v>
+      </c>
+      <c r="E101" s="10">
+        <v>44734.7857721412</v>
+      </c>
+      <c r="F101" s="10">
+        <v>44734.7857721412</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1026</v>
+      </c>
+      <c r="E102" s="10">
+        <v>44734.786140115742</v>
+      </c>
+      <c r="F102" s="10">
+        <v>44734.786140115742</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1026</v>
+      </c>
+      <c r="E103" s="10">
+        <v>44734.785917847221</v>
+      </c>
+      <c r="F103" s="10">
+        <v>44734.785917847221</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1026</v>
+      </c>
+      <c r="E104" s="10">
+        <v>44734.786344456021</v>
+      </c>
+      <c r="F104" s="10">
+        <v>44734.786344456021</v>
+      </c>
+      <c r="G104">
+        <v>6</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1026</v>
+      </c>
+      <c r="E105" s="10">
+        <v>44734.785501817132</v>
+      </c>
+      <c r="F105" s="10">
+        <v>44734.785501817132</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>22</v>
+      </c>
+      <c r="I105" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1026</v>
+      </c>
+      <c r="E106" s="10">
+        <v>44734.786055289354</v>
+      </c>
+      <c r="F106" s="10">
+        <v>44734.786055289354</v>
+      </c>
+      <c r="G106">
+        <v>4</v>
+      </c>
+      <c r="H106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I106" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106" s="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1028</v>
+      </c>
+      <c r="E107" s="10">
+        <v>44735.659314131946</v>
+      </c>
+      <c r="F107" s="10">
+        <v>44735.659314131946</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1028</v>
+      </c>
+      <c r="E108" s="10">
+        <v>44735.659732060187</v>
+      </c>
+      <c r="F108" s="10">
+        <v>44735.659732060187</v>
+      </c>
+      <c r="G108">
+        <v>6</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1028</v>
+      </c>
+      <c r="E109" s="10">
+        <v>44735.659674907409</v>
+      </c>
+      <c r="F109" s="10">
+        <v>44735.659674907409</v>
+      </c>
+      <c r="G109">
+        <v>5</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1028</v>
+      </c>
+      <c r="E110" s="10">
+        <v>44735.659592615739</v>
+      </c>
+      <c r="F110" s="10">
+        <v>44735.659592615739</v>
+      </c>
+      <c r="G110">
+        <v>4</v>
+      </c>
+      <c r="H110" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s">
+        <v>21</v>
+      </c>
+      <c r="J110" s="17">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1028</v>
+      </c>
+      <c r="E111" s="10">
+        <v>44735.659524085648</v>
+      </c>
+      <c r="F111" s="10">
+        <v>44735.659524085648</v>
+      </c>
+      <c r="G111">
+        <v>3</v>
+      </c>
+      <c r="H111" t="s">
+        <v>22</v>
+      </c>
+      <c r="I111" t="s">
+        <v>23</v>
+      </c>
+      <c r="J111" s="17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1028</v>
+      </c>
+      <c r="E112" s="10">
+        <v>44735.659438182869</v>
+      </c>
+      <c r="F112" s="10">
+        <v>44735.659438182869</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1031</v>
+      </c>
+      <c r="E113" s="10">
+        <v>44734.686553946762</v>
+      </c>
+      <c r="F113" s="10">
+        <v>44734.686553946762</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1031</v>
+      </c>
+      <c r="E114" s="10">
+        <v>44734.68752230324</v>
+      </c>
+      <c r="F114" s="10">
+        <v>44734.68752230324</v>
+      </c>
+      <c r="G114">
+        <v>4</v>
+      </c>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" s="17">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1031</v>
+      </c>
+      <c r="E115" s="10">
+        <v>44734.687689236111</v>
+      </c>
+      <c r="F115" s="10">
+        <v>44734.687689236111</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" s="17">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1031</v>
+      </c>
+      <c r="E116" s="10">
+        <v>44734.687231157404</v>
+      </c>
+      <c r="F116" s="10">
+        <v>44734.687231157404</v>
+      </c>
+      <c r="G116">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1031</v>
+      </c>
+      <c r="E117" s="10">
+        <v>44734.687912719906</v>
+      </c>
+      <c r="F117" s="10">
+        <v>44734.687912719906</v>
+      </c>
+      <c r="G117">
+        <v>6</v>
+      </c>
+      <c r="H117" t="s">
+        <v>22</v>
+      </c>
+      <c r="I117" t="s">
+        <v>23</v>
+      </c>
+      <c r="J117" s="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1031</v>
+      </c>
+      <c r="E118" s="10">
+        <v>44734.687023495368</v>
+      </c>
+      <c r="F118" s="10">
+        <v>44734.687023495368</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>24</v>
+      </c>
+      <c r="I118" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1032</v>
+      </c>
+      <c r="E119" s="10">
+        <v>44734.613674016204</v>
+      </c>
+      <c r="F119" s="10">
+        <v>44734.613674016204</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1032</v>
+      </c>
+      <c r="E120" s="10">
+        <v>44734.613498310187</v>
+      </c>
+      <c r="F120" s="10">
+        <v>44734.613498310187</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s">
+        <v>17</v>
+      </c>
+      <c r="J120" s="17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1032</v>
+      </c>
+      <c r="E121" s="10">
+        <v>44734.614035706021</v>
+      </c>
+      <c r="F121" s="10">
+        <v>44734.614035706021</v>
+      </c>
+      <c r="G121">
+        <v>6</v>
+      </c>
+      <c r="H121" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1032</v>
+      </c>
+      <c r="E122" s="10">
+        <v>44734.61397046296</v>
+      </c>
+      <c r="F122" s="10">
+        <v>44734.61397046296</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="17">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1032</v>
+      </c>
+      <c r="E123" s="10">
+        <v>44734.613891712965</v>
+      </c>
+      <c r="F123" s="10">
+        <v>44734.613891712965</v>
+      </c>
+      <c r="G123">
+        <v>4</v>
+      </c>
+      <c r="H123" t="s">
+        <v>22</v>
+      </c>
+      <c r="I123" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" s="17">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1032</v>
+      </c>
+      <c r="E124" s="10">
+        <v>44734.613328692132</v>
+      </c>
+      <c r="F124" s="10">
+        <v>44734.613328692132</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>24</v>
+      </c>
+      <c r="I124" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" s="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1033</v>
+      </c>
+      <c r="E125" s="10">
+        <v>44734.613845162035</v>
+      </c>
+      <c r="F125" s="10">
+        <v>44734.613845162035</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1033</v>
+      </c>
+      <c r="E126" s="10">
+        <v>44734.613388020836</v>
+      </c>
+      <c r="F126" s="10">
+        <v>44734.613388020836</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1033</v>
+      </c>
+      <c r="E127" s="10">
+        <v>44734.613762152774</v>
+      </c>
+      <c r="F127" s="10">
+        <v>44734.613762152774</v>
+      </c>
+      <c r="G127">
+        <v>4</v>
+      </c>
+      <c r="H127" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" s="17">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1033</v>
+      </c>
+      <c r="E128" s="10">
+        <v>44734.613964525466</v>
+      </c>
+      <c r="F128" s="10">
+        <v>44734.613964525466</v>
+      </c>
+      <c r="G128">
+        <v>6</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" t="s">
+        <v>21</v>
+      </c>
+      <c r="J128" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1033</v>
+      </c>
+      <c r="E129" s="10">
+        <v>44734.613470636577</v>
+      </c>
+      <c r="F129" s="10">
+        <v>44734.613470636577</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129" t="s">
+        <v>22</v>
+      </c>
+      <c r="I129" t="s">
+        <v>23</v>
+      </c>
+      <c r="J129" s="17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1033</v>
+      </c>
+      <c r="E130" s="10">
+        <v>44734.61362744213</v>
+      </c>
+      <c r="F130" s="10">
+        <v>44734.61362744213</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+      <c r="H130" t="s">
+        <v>24</v>
+      </c>
+      <c r="I130" t="s">
+        <v>25</v>
+      </c>
+      <c r="J130" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1034</v>
+      </c>
+      <c r="E131" s="10">
+        <v>44735.794772430556</v>
+      </c>
+      <c r="F131" s="10">
+        <v>44735.794772430556</v>
+      </c>
+      <c r="G131">
+        <v>4</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="17">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1034</v>
+      </c>
+      <c r="E132" s="10">
+        <v>44735.794930856478</v>
+      </c>
+      <c r="F132" s="10">
+        <v>44735.794930856478</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1034</v>
+      </c>
+      <c r="E133" s="10">
+        <v>44735.794303738425</v>
+      </c>
+      <c r="F133" s="10">
+        <v>44735.794303738425</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1034</v>
+      </c>
+      <c r="E134" s="10">
+        <v>44735.794417592595</v>
+      </c>
+      <c r="F134" s="10">
+        <v>44735.794417592595</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J134" s="17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1034</v>
+      </c>
+      <c r="E135" s="10">
+        <v>44735.794595740743</v>
+      </c>
+      <c r="F135" s="10">
+        <v>44735.794595740743</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
+        <v>22</v>
+      </c>
+      <c r="I135" t="s">
+        <v>23</v>
+      </c>
+      <c r="J135" s="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1034</v>
+      </c>
+      <c r="E136" s="10">
+        <v>44735.795015104166</v>
+      </c>
+      <c r="F136" s="10">
+        <v>44735.795015104166</v>
+      </c>
+      <c r="G136">
+        <v>6</v>
+      </c>
+      <c r="H136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136" t="s">
+        <v>25</v>
+      </c>
+      <c r="J136" s="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1035</v>
+      </c>
+      <c r="E137" s="10">
+        <v>44735.791927881946</v>
+      </c>
+      <c r="F137" s="10">
+        <v>44735.791927881946</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1035</v>
+      </c>
+      <c r="E138" s="10">
+        <v>44735.792829039354</v>
+      </c>
+      <c r="F138" s="10">
+        <v>44735.792829039354</v>
+      </c>
+      <c r="G138">
+        <v>6</v>
+      </c>
+      <c r="H138" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" t="s">
+        <v>17</v>
+      </c>
+      <c r="J138" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1035</v>
+      </c>
+      <c r="E139" s="10">
+        <v>44735.792137673612</v>
+      </c>
+      <c r="F139" s="10">
+        <v>44735.792137673612</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1035</v>
+      </c>
+      <c r="E140" s="10">
+        <v>44735.791833761577</v>
+      </c>
+      <c r="F140" s="10">
+        <v>44735.791833761577</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" t="s">
+        <v>21</v>
+      </c>
+      <c r="J140" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1035</v>
+      </c>
+      <c r="E141" s="10">
+        <v>44735.792637511571</v>
+      </c>
+      <c r="F141" s="10">
+        <v>44735.792637511571</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+      <c r="H141" t="s">
+        <v>22</v>
+      </c>
+      <c r="I141" t="s">
+        <v>23</v>
+      </c>
+      <c r="J141" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1035</v>
+      </c>
+      <c r="E142" s="10">
+        <v>44735.792303819442</v>
+      </c>
+      <c r="F142" s="10">
+        <v>44735.792303819442</v>
+      </c>
+      <c r="G142">
+        <v>4</v>
+      </c>
+      <c r="H142" t="s">
+        <v>24</v>
+      </c>
+      <c r="I142" t="s">
+        <v>25</v>
+      </c>
+      <c r="J142" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1036</v>
+      </c>
+      <c r="E143" s="10">
+        <v>44735.623212245373</v>
+      </c>
+      <c r="F143" s="10">
+        <v>44735.623212245373</v>
+      </c>
+      <c r="G143">
+        <v>6</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1036</v>
+      </c>
+      <c r="E144" s="10">
+        <v>44735.622797569442</v>
+      </c>
+      <c r="F144" s="10">
+        <v>44735.622797569442</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+      <c r="H144" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" s="17">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1036</v>
+      </c>
+      <c r="E145" s="10">
+        <v>44735.622691226854</v>
+      </c>
+      <c r="F145" s="10">
+        <v>44735.622691226854</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1036</v>
+      </c>
+      <c r="E146" s="10">
+        <v>44735.622869733794</v>
+      </c>
+      <c r="F146" s="10">
+        <v>44735.622869733794</v>
+      </c>
+      <c r="G146">
+        <v>4</v>
+      </c>
+      <c r="H146" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s">
+        <v>21</v>
+      </c>
+      <c r="J146" s="17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1036</v>
+      </c>
+      <c r="E147" s="10">
+        <v>44735.622391377314</v>
+      </c>
+      <c r="F147" s="10">
+        <v>44735.622391377314</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147" t="s">
+        <v>23</v>
+      </c>
+      <c r="J147" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1036</v>
+      </c>
+      <c r="E148" s="10">
+        <v>44735.623065219908</v>
+      </c>
+      <c r="F148" s="10">
+        <v>44735.623065219908</v>
+      </c>
+      <c r="G148">
+        <v>5</v>
+      </c>
+      <c r="H148" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" t="s">
+        <v>25</v>
+      </c>
+      <c r="J148" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1039</v>
+      </c>
+      <c r="E149" s="10">
+        <v>44735.747202037041</v>
+      </c>
+      <c r="F149" s="10">
+        <v>44735.747202037041</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1039</v>
+      </c>
+      <c r="E150" s="10">
+        <v>44735.747485914355</v>
+      </c>
+      <c r="F150" s="10">
+        <v>44735.747485914355</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" t="s">
+        <v>17</v>
+      </c>
+      <c r="J150" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1039</v>
+      </c>
+      <c r="E151" s="10">
+        <v>44735.746997372684</v>
+      </c>
+      <c r="F151" s="10">
+        <v>44735.746997372684</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>1039</v>
+      </c>
+      <c r="E152" s="10">
+        <v>44735.746691805558</v>
+      </c>
+      <c r="F152" s="10">
+        <v>44735.746691805558</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" t="s">
+        <v>21</v>
+      </c>
+      <c r="J152" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>1039</v>
+      </c>
+      <c r="E153" s="10">
+        <v>44735.747382881942</v>
+      </c>
+      <c r="F153" s="10">
+        <v>44735.747382881942</v>
+      </c>
+      <c r="G153">
+        <v>4</v>
+      </c>
+      <c r="H153" t="s">
+        <v>22</v>
+      </c>
+      <c r="I153" t="s">
+        <v>23</v>
+      </c>
+      <c r="J153" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1039</v>
+      </c>
+      <c r="E154" s="10">
+        <v>44735.747882314812</v>
+      </c>
+      <c r="F154" s="10">
+        <v>44735.747882314812</v>
+      </c>
+      <c r="G154">
+        <v>6</v>
+      </c>
+      <c r="H154" t="s">
+        <v>24</v>
+      </c>
+      <c r="I154" t="s">
+        <v>25</v>
+      </c>
+      <c r="J154" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1048</v>
+      </c>
+      <c r="E155" s="10">
+        <v>44734.625561203706</v>
+      </c>
+      <c r="F155" s="10">
+        <v>44734.625561203706</v>
+      </c>
+      <c r="G155">
+        <v>6</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>1048</v>
+      </c>
+      <c r="E156" s="10">
+        <v>44734.62499916667</v>
+      </c>
+      <c r="F156" s="10">
+        <v>44734.62499916667</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>1048</v>
+      </c>
+      <c r="E157" s="10">
+        <v>44734.624931655089</v>
+      </c>
+      <c r="F157" s="10">
+        <v>44734.624931655089</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>1048</v>
+      </c>
+      <c r="E158" s="10">
+        <v>44734.625486157405</v>
+      </c>
+      <c r="F158" s="10">
+        <v>44734.625486157405</v>
+      </c>
+      <c r="G158">
+        <v>5</v>
+      </c>
+      <c r="H158" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1048</v>
+      </c>
+      <c r="E159" s="10">
+        <v>44734.624846736115</v>
+      </c>
+      <c r="F159" s="10">
+        <v>44734.624846736115</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" t="s">
+        <v>23</v>
+      </c>
+      <c r="J159" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1048</v>
+      </c>
+      <c r="E160" s="10">
+        <v>44734.625403518519</v>
+      </c>
+      <c r="F160" s="10">
+        <v>44734.625403518519</v>
+      </c>
+      <c r="G160">
+        <v>4</v>
+      </c>
+      <c r="H160" t="s">
+        <v>24</v>
+      </c>
+      <c r="I160" t="s">
+        <v>25</v>
+      </c>
+      <c r="J160" s="17">
         <v>60</v>
       </c>
     </row>
@@ -3328,262 +5056,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J4 A5:A88 E5:J88" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J4 A5:A160 E5:J160" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa692c46-34ab-46f9-a979-d3cb1eaf5929">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100218F9FC9666D7049AE1A0C531ACF9637" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f8c37b320595883f1241591c30f20e40">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa692c46-34ab-46f9-a979-d3cb1eaf5929" xmlns:ns3="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a80417e317266902b255f2b85409d5f5" ns2:_="" ns3:_="">
-    <xsd:import namespace="aa692c46-34ab-46f9-a979-d3cb1eaf5929"/>
-    <xsd:import namespace="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa692c46-34ab-46f9-a979-d3cb1eaf5929" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="17" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0ad816ea-8460-453a-b1af-cd753e23c00d" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="18" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{901d4da0-4ea8-4066-bd9c-de8510ad9c55}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EBD0F08-FB22-4B64-B546-80A93C0F5F65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa692c46-34ab-46f9-a979-d3cb1eaf5929"/>
-    <ds:schemaRef ds:uri="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53203BBF-3395-46CB-A87D-770BF0EA1638}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{023FF894-A1D0-42B2-87D4-95418B1C2BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aa692c46-34ab-46f9-a979-d3cb1eaf5929"/>
-    <ds:schemaRef ds:uri="90e2acd6-4a0d-42b1-86b6-3d19204d0f3d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/SEV_v2_-_Training_refresher_for_sess_2_-_Raw_Data.xlsx
+++ b/data/SEV_v2_-_Training_refresher_for_sess_2_-_Raw_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duboisa7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubreydubois/Documents/SEV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EC9E9-93D8-421F-AD74-48499F386378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EBD54FA-4237-A44E-BA2B-693880813E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverSheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="30">
   <si>
     <t>Participant Code</t>
   </si>
@@ -678,24 +678,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A750609-A6AB-4E1E-87D9-235DF0B21BB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E4899D-A486-4C2A-8161-E547676B7D88}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E45"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="7" width="18.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -707,7 +707,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -719,7 +719,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -731,7 +731,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -743,7 +743,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -755,7 +755,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -767,7 +767,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -779,7 +779,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -791,7 +791,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -803,7 +803,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -839,7 +839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1002</v>
       </c>
@@ -850,7 +850,7 @@
         <v>44734.747354976855</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -861,7 +861,7 @@
         <v>44734.665382025465</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1006</v>
       </c>
@@ -872,12 +872,12 @@
         <v>44735.666112696759</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1007</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1008</v>
       </c>
@@ -888,7 +888,7 @@
         <v>44734.664123726849</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1009</v>
       </c>
@@ -899,7 +899,7 @@
         <v>44734.75884800926</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1010</v>
       </c>
@@ -910,7 +910,7 @@
         <v>44734.795794594909</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1012</v>
       </c>
@@ -921,7 +921,7 @@
         <v>44735.672819432868</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1015</v>
       </c>
@@ -932,7 +932,7 @@
         <v>44734.800415543985</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1016</v>
       </c>
@@ -943,7 +943,7 @@
         <v>44734.794621157409</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1017</v>
       </c>
@@ -954,7 +954,7 @@
         <v>44735.793553263888</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1018</v>
       </c>
@@ -965,7 +965,7 @@
         <v>44735.793253668984</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1019</v>
       </c>
@@ -976,7 +976,7 @@
         <v>44734.678025833331</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1021</v>
       </c>
@@ -987,7 +987,7 @@
         <v>44735.798908599536</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1022</v>
       </c>
@@ -998,7 +998,7 @@
         <v>44735.619945810184</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1023</v>
       </c>
@@ -1009,12 +1009,18 @@
         <v>44735.660976770836</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1024</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F28" s="8">
+        <v>44736.670089270832</v>
+      </c>
+      <c r="G28" s="8">
+        <v>44736.670842291664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1025</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>44734.621838437502</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1026</v>
       </c>
@@ -1036,12 +1042,18 @@
         <v>44734.786344456021</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1027</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F31" s="8">
+        <v>44736.79449403935</v>
+      </c>
+      <c r="G31" s="8">
+        <v>44736.795284282409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1028</v>
       </c>
@@ -1052,12 +1064,12 @@
         <v>44735.659732060187</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1029</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1031</v>
       </c>
@@ -1068,7 +1080,7 @@
         <v>44734.687912719906</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1032</v>
       </c>
@@ -1079,7 +1091,7 @@
         <v>44734.614035706021</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1033</v>
       </c>
@@ -1090,7 +1102,7 @@
         <v>44734.613964525466</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1034</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>44735.795015104166</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1035</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>44735.792829039354</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1036</v>
       </c>
@@ -1123,12 +1135,18 @@
         <v>44735.623212245373</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1037</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F40" s="8">
+        <v>44736.775639537038</v>
+      </c>
+      <c r="G40" s="8">
+        <v>44736.77640855324</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1039</v>
       </c>
@@ -1139,22 +1157,34 @@
         <v>44735.747882314812</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1040</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F42" s="8">
+        <v>44736.742691574073</v>
+      </c>
+      <c r="G42" s="8">
+        <v>44736.743309687503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1045</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1046</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F44" s="8">
+        <v>44736.783210324073</v>
+      </c>
+      <c r="G44" s="8">
+        <v>44736.783980115739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1048</v>
       </c>
@@ -1189,22 +1219,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B979DC1-437A-478D-ADF8-C81CFA113727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19808A0-1A41-4E72-B90B-4DEEF141EA05}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
@@ -1222,7 +1252,7 @@
       </c>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1233,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1277,7 +1307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1298,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5567F5-4FD4-407F-93E1-F8ACDB1E7701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4DF4F-0246-40FA-8A9D-610543499B29}">
   <sheetPr>
     <tabColor rgb="FF63666A"/>
   </sheetPr>
@@ -1311,13 +1341,13 @@
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="10" customWidth="1"/>
+    <col min="1" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1329,15 +1359,15 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1371,29 +1401,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A7DF13-F68E-4EF2-BEA5-6172A45B8824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407F5BF-144B-4A73-8B4F-7C705F674FD9}">
   <sheetPr>
     <tabColor rgb="FFD90401"/>
   </sheetPr>
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E160" sqref="E160"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" style="10" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" customWidth="1"/>
+    <col min="1" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" style="10" customWidth="1"/>
+    <col min="7" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="25" style="17" customWidth="1"/>
     <col min="11" max="19" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1411,21 +1441,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="J2" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="J3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="20">
         <v>1002</v>
       </c>
@@ -1483,7 +1513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1506,7 +1536,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1529,7 +1559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1002</v>
       </c>
@@ -1552,7 +1582,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1002</v>
       </c>
@@ -1575,7 +1605,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1002</v>
       </c>
@@ -1598,7 +1628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1003</v>
       </c>
@@ -1621,7 +1651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1003</v>
       </c>
@@ -1644,7 +1674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1003</v>
       </c>
@@ -1667,7 +1697,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1003</v>
       </c>
@@ -1690,7 +1720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -1713,7 +1743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1003</v>
       </c>
@@ -1736,7 +1766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1006</v>
       </c>
@@ -1759,7 +1789,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1006</v>
       </c>
@@ -1782,7 +1812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1006</v>
       </c>
@@ -1805,7 +1835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1006</v>
       </c>
@@ -1828,7 +1858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1006</v>
       </c>
@@ -1851,7 +1881,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1006</v>
       </c>
@@ -1874,7 +1904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1008</v>
       </c>
@@ -1897,7 +1927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1008</v>
       </c>
@@ -1920,7 +1950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1008</v>
       </c>
@@ -1943,7 +1973,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1008</v>
       </c>
@@ -1966,7 +1996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1008</v>
       </c>
@@ -1989,7 +2019,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1008</v>
       </c>
@@ -2012,7 +2042,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1009</v>
       </c>
@@ -2035,7 +2065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1009</v>
       </c>
@@ -2058,7 +2088,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1009</v>
       </c>
@@ -2081,7 +2111,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1009</v>
       </c>
@@ -2104,7 +2134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1009</v>
       </c>
@@ -2127,7 +2157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1009</v>
       </c>
@@ -2150,7 +2180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1010</v>
       </c>
@@ -2173,7 +2203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1010</v>
       </c>
@@ -2196,7 +2226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1010</v>
       </c>
@@ -2219,7 +2249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1010</v>
       </c>
@@ -2242,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1010</v>
       </c>
@@ -2265,7 +2295,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>1010</v>
       </c>
@@ -2288,7 +2318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1012</v>
       </c>
@@ -2311,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>1012</v>
       </c>
@@ -2334,7 +2364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>1012</v>
       </c>
@@ -2357,7 +2387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1012</v>
       </c>
@@ -2380,7 +2410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>1012</v>
       </c>
@@ -2403,7 +2433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>1012</v>
       </c>
@@ -2426,7 +2456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>1015</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>1015</v>
       </c>
@@ -2472,7 +2502,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>1015</v>
       </c>
@@ -2495,7 +2525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>1015</v>
       </c>
@@ -2518,7 +2548,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>1015</v>
       </c>
@@ -2541,7 +2571,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>1015</v>
       </c>
@@ -2564,7 +2594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>1016</v>
       </c>
@@ -2587,7 +2617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>1016</v>
       </c>
@@ -2610,7 +2640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>1016</v>
       </c>
@@ -2633,7 +2663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>1016</v>
       </c>
@@ -2656,7 +2686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>1016</v>
       </c>
@@ -2679,7 +2709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>1016</v>
       </c>
@@ -2702,7 +2732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>1017</v>
       </c>
@@ -2725,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>1017</v>
       </c>
@@ -2748,7 +2778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>1017</v>
       </c>
@@ -2771,7 +2801,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>1017</v>
       </c>
@@ -2794,7 +2824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>1017</v>
       </c>
@@ -2817,7 +2847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>1017</v>
       </c>
@@ -2840,7 +2870,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>1018</v>
       </c>
@@ -2863,7 +2893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>1018</v>
       </c>
@@ -2886,7 +2916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>1018</v>
       </c>
@@ -2909,7 +2939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1018</v>
       </c>
@@ -2932,7 +2962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1018</v>
       </c>
@@ -2955,7 +2985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1018</v>
       </c>
@@ -2978,7 +3008,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1019</v>
       </c>
@@ -3001,7 +3031,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1019</v>
       </c>
@@ -3024,7 +3054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1019</v>
       </c>
@@ -3047,7 +3077,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1019</v>
       </c>
@@ -3070,7 +3100,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1019</v>
       </c>
@@ -3093,7 +3123,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1019</v>
       </c>
@@ -3116,7 +3146,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1021</v>
       </c>
@@ -3139,7 +3169,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1021</v>
       </c>
@@ -3162,7 +3192,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1021</v>
       </c>
@@ -3185,7 +3215,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1021</v>
       </c>
@@ -3208,7 +3238,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1021</v>
       </c>
@@ -3231,7 +3261,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1021</v>
       </c>
@@ -3254,7 +3284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1022</v>
       </c>
@@ -3277,7 +3307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1022</v>
       </c>
@@ -3300,7 +3330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1022</v>
       </c>
@@ -3323,7 +3353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1022</v>
       </c>
@@ -3346,7 +3376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1022</v>
       </c>
@@ -3369,7 +3399,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1022</v>
       </c>
@@ -3392,7 +3422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1023</v>
       </c>
@@ -3415,7 +3445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1023</v>
       </c>
@@ -3438,7 +3468,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1023</v>
       </c>
@@ -3461,7 +3491,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1023</v>
       </c>
@@ -3484,7 +3514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1023</v>
       </c>
@@ -3507,7 +3537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1023</v>
       </c>
@@ -3530,18 +3560,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E95" s="10">
-        <v>44734.621739178241</v>
+        <v>44736.670412546293</v>
       </c>
       <c r="F95" s="10">
-        <v>44734.621739178241</v>
+        <v>44736.670412546293</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
@@ -3550,21 +3580,21 @@
         <v>15</v>
       </c>
       <c r="J95" s="17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E96" s="10">
-        <v>44734.621180347225</v>
+        <v>44736.670717106485</v>
       </c>
       <c r="F96" s="10">
-        <v>44734.621180347225</v>
+        <v>44736.670717106485</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
         <v>16</v>
@@ -3573,21 +3603,21 @@
         <v>17</v>
       </c>
       <c r="J96" s="17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E97" s="10">
-        <v>44734.6215375463</v>
+        <v>44736.670319490739</v>
       </c>
       <c r="F97" s="10">
-        <v>44734.6215375463</v>
+        <v>44736.670319490739</v>
       </c>
       <c r="G97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H97" t="s">
         <v>18</v>
@@ -3596,21 +3626,21 @@
         <v>19</v>
       </c>
       <c r="J97" s="17">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E98" s="10">
-        <v>44734.62094267361</v>
+        <v>44736.670842291664</v>
       </c>
       <c r="F98" s="10">
-        <v>44734.62094267361</v>
+        <v>44736.670842291664</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H98" t="s">
         <v>20</v>
@@ -3619,21 +3649,21 @@
         <v>21</v>
       </c>
       <c r="J98" s="17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E99" s="10">
-        <v>44734.621838437502</v>
+        <v>44736.670089270832</v>
       </c>
       <c r="F99" s="10">
-        <v>44734.621838437502</v>
+        <v>44736.670089270832</v>
       </c>
       <c r="G99">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>22</v>
@@ -3642,21 +3672,21 @@
         <v>23</v>
       </c>
       <c r="J99" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E100" s="10">
-        <v>44734.621276018515</v>
+        <v>44736.670555659723</v>
       </c>
       <c r="F100" s="10">
-        <v>44734.621276018515</v>
+        <v>44736.670555659723</v>
       </c>
       <c r="G100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H100" t="s">
         <v>24</v>
@@ -3665,21 +3695,21 @@
         <v>25</v>
       </c>
       <c r="J100" s="17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E101" s="10">
-        <v>44734.7857721412</v>
+        <v>44734.621739178241</v>
       </c>
       <c r="F101" s="10">
-        <v>44734.7857721412</v>
+        <v>44734.621739178241</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
@@ -3688,21 +3718,21 @@
         <v>15</v>
       </c>
       <c r="J101" s="17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E102" s="10">
-        <v>44734.786140115742</v>
+        <v>44734.621180347225</v>
       </c>
       <c r="F102" s="10">
-        <v>44734.786140115742</v>
+        <v>44734.621180347225</v>
       </c>
       <c r="G102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>16</v>
@@ -3711,21 +3741,21 @@
         <v>17</v>
       </c>
       <c r="J102" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E103" s="10">
-        <v>44734.785917847221</v>
+        <v>44734.6215375463</v>
       </c>
       <c r="F103" s="10">
-        <v>44734.785917847221</v>
+        <v>44734.6215375463</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H103" t="s">
         <v>18</v>
@@ -3734,21 +3764,21 @@
         <v>19</v>
       </c>
       <c r="J103" s="17">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E104" s="10">
-        <v>44734.786344456021</v>
+        <v>44734.62094267361</v>
       </c>
       <c r="F104" s="10">
-        <v>44734.786344456021</v>
+        <v>44734.62094267361</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H104" t="s">
         <v>20</v>
@@ -3757,21 +3787,21 @@
         <v>21</v>
       </c>
       <c r="J104" s="17">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E105" s="10">
-        <v>44734.785501817132</v>
+        <v>44734.621838437502</v>
       </c>
       <c r="F105" s="10">
-        <v>44734.785501817132</v>
+        <v>44734.621838437502</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H105" t="s">
         <v>22</v>
@@ -3780,21 +3810,21 @@
         <v>23</v>
       </c>
       <c r="J105" s="17">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E106" s="10">
-        <v>44734.786055289354</v>
+        <v>44734.621276018515</v>
       </c>
       <c r="F106" s="10">
-        <v>44734.786055289354</v>
+        <v>44734.621276018515</v>
       </c>
       <c r="G106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H106" t="s">
         <v>24</v>
@@ -3803,21 +3833,21 @@
         <v>25</v>
       </c>
       <c r="J106" s="17">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E107" s="10">
-        <v>44735.659314131946</v>
+        <v>44734.7857721412</v>
       </c>
       <c r="F107" s="10">
-        <v>44735.659314131946</v>
+        <v>44734.7857721412</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
@@ -3826,21 +3856,21 @@
         <v>15</v>
       </c>
       <c r="J107" s="17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E108" s="10">
-        <v>44735.659732060187</v>
+        <v>44734.786140115742</v>
       </c>
       <c r="F108" s="10">
-        <v>44735.659732060187</v>
+        <v>44734.786140115742</v>
       </c>
       <c r="G108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H108" t="s">
         <v>16</v>
@@ -3849,21 +3879,21 @@
         <v>17</v>
       </c>
       <c r="J108" s="17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E109" s="10">
-        <v>44735.659674907409</v>
+        <v>44734.785917847221</v>
       </c>
       <c r="F109" s="10">
-        <v>44735.659674907409</v>
+        <v>44734.785917847221</v>
       </c>
       <c r="G109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H109" t="s">
         <v>18</v>
@@ -3872,21 +3902,21 @@
         <v>19</v>
       </c>
       <c r="J109" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E110" s="10">
-        <v>44735.659592615739</v>
+        <v>44734.786344456021</v>
       </c>
       <c r="F110" s="10">
-        <v>44735.659592615739</v>
+        <v>44734.786344456021</v>
       </c>
       <c r="G110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H110" t="s">
         <v>20</v>
@@ -3895,21 +3925,21 @@
         <v>21</v>
       </c>
       <c r="J110" s="17">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E111" s="10">
-        <v>44735.659524085648</v>
+        <v>44734.785501817132</v>
       </c>
       <c r="F111" s="10">
-        <v>44735.659524085648</v>
+        <v>44734.785501817132</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="s">
         <v>22</v>
@@ -3918,21 +3948,21 @@
         <v>23</v>
       </c>
       <c r="J111" s="17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E112" s="10">
-        <v>44735.659438182869</v>
+        <v>44734.786055289354</v>
       </c>
       <c r="F112" s="10">
-        <v>44735.659438182869</v>
+        <v>44734.786055289354</v>
       </c>
       <c r="G112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H112" t="s">
         <v>24</v>
@@ -3941,21 +3971,21 @@
         <v>25</v>
       </c>
       <c r="J112" s="17">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E113" s="10">
-        <v>44734.686553946762</v>
+        <v>44736.795284282409</v>
       </c>
       <c r="F113" s="10">
-        <v>44734.686553946762</v>
+        <v>44736.795284282409</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -3964,21 +3994,21 @@
         <v>15</v>
       </c>
       <c r="J113" s="17">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E114" s="10">
-        <v>44734.68752230324</v>
+        <v>44736.79449403935</v>
       </c>
       <c r="F114" s="10">
-        <v>44734.68752230324</v>
+        <v>44736.79449403935</v>
       </c>
       <c r="G114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H114" t="s">
         <v>16</v>
@@ -3987,21 +4017,21 @@
         <v>17</v>
       </c>
       <c r="J114" s="17">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E115" s="10">
-        <v>44734.687689236111</v>
+        <v>44736.794752453701</v>
       </c>
       <c r="F115" s="10">
-        <v>44734.687689236111</v>
+        <v>44736.794752453701</v>
       </c>
       <c r="G115">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H115" t="s">
         <v>18</v>
@@ -4010,18 +4040,18 @@
         <v>19</v>
       </c>
       <c r="J115" s="17">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E116" s="10">
-        <v>44734.687231157404</v>
+        <v>44736.794862407405</v>
       </c>
       <c r="F116" s="10">
-        <v>44734.687231157404</v>
+        <v>44736.794862407405</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -4033,21 +4063,21 @@
         <v>21</v>
       </c>
       <c r="J116" s="17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E117" s="10">
-        <v>44734.687912719906</v>
+        <v>44736.794988287038</v>
       </c>
       <c r="F117" s="10">
-        <v>44734.687912719906</v>
+        <v>44736.794988287038</v>
       </c>
       <c r="G117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H117" t="s">
         <v>22</v>
@@ -4056,21 +4086,21 @@
         <v>23</v>
       </c>
       <c r="J117" s="17">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E118" s="10">
-        <v>44734.687023495368</v>
+        <v>44736.795156064814</v>
       </c>
       <c r="F118" s="10">
-        <v>44734.687023495368</v>
+        <v>44736.795156064814</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H118" t="s">
         <v>24</v>
@@ -4079,21 +4109,21 @@
         <v>25</v>
       </c>
       <c r="J118" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E119" s="10">
-        <v>44734.613674016204</v>
+        <v>44735.659314131946</v>
       </c>
       <c r="F119" s="10">
-        <v>44734.613674016204</v>
+        <v>44735.659314131946</v>
       </c>
       <c r="G119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
@@ -4102,21 +4132,21 @@
         <v>15</v>
       </c>
       <c r="J119" s="17">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E120" s="10">
-        <v>44734.613498310187</v>
+        <v>44735.659732060187</v>
       </c>
       <c r="F120" s="10">
-        <v>44734.613498310187</v>
+        <v>44735.659732060187</v>
       </c>
       <c r="G120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H120" t="s">
         <v>16</v>
@@ -4125,21 +4155,21 @@
         <v>17</v>
       </c>
       <c r="J120" s="17">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E121" s="10">
-        <v>44734.614035706021</v>
+        <v>44735.659674907409</v>
       </c>
       <c r="F121" s="10">
-        <v>44734.614035706021</v>
+        <v>44735.659674907409</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
@@ -4148,21 +4178,21 @@
         <v>19</v>
       </c>
       <c r="J121" s="17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E122" s="10">
-        <v>44734.61397046296</v>
+        <v>44735.659592615739</v>
       </c>
       <c r="F122" s="10">
-        <v>44734.61397046296</v>
+        <v>44735.659592615739</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H122" t="s">
         <v>20</v>
@@ -4171,21 +4201,21 @@
         <v>21</v>
       </c>
       <c r="J122" s="17">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E123" s="10">
-        <v>44734.613891712965</v>
+        <v>44735.659524085648</v>
       </c>
       <c r="F123" s="10">
-        <v>44734.613891712965</v>
+        <v>44735.659524085648</v>
       </c>
       <c r="G123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H123" t="s">
         <v>22</v>
@@ -4194,21 +4224,21 @@
         <v>23</v>
       </c>
       <c r="J123" s="17">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E124" s="10">
-        <v>44734.613328692132</v>
+        <v>44735.659438182869</v>
       </c>
       <c r="F124" s="10">
-        <v>44734.613328692132</v>
+        <v>44735.659438182869</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="s">
         <v>24</v>
@@ -4217,21 +4247,21 @@
         <v>25</v>
       </c>
       <c r="J124" s="17">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E125" s="10">
-        <v>44734.613845162035</v>
+        <v>44734.686553946762</v>
       </c>
       <c r="F125" s="10">
-        <v>44734.613845162035</v>
+        <v>44734.686553946762</v>
       </c>
       <c r="G125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>14</v>
@@ -4240,21 +4270,21 @@
         <v>15</v>
       </c>
       <c r="J125" s="17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E126" s="10">
-        <v>44734.613388020836</v>
+        <v>44734.68752230324</v>
       </c>
       <c r="F126" s="10">
-        <v>44734.613388020836</v>
+        <v>44734.68752230324</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126" t="s">
         <v>16</v>
@@ -4263,21 +4293,21 @@
         <v>17</v>
       </c>
       <c r="J126" s="17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E127" s="10">
-        <v>44734.613762152774</v>
+        <v>44734.687689236111</v>
       </c>
       <c r="F127" s="10">
-        <v>44734.613762152774</v>
+        <v>44734.687689236111</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H127" t="s">
         <v>18</v>
@@ -4286,21 +4316,21 @@
         <v>19</v>
       </c>
       <c r="J127" s="17">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E128" s="10">
-        <v>44734.613964525466</v>
+        <v>44734.687231157404</v>
       </c>
       <c r="F128" s="10">
-        <v>44734.613964525466</v>
+        <v>44734.687231157404</v>
       </c>
       <c r="G128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
@@ -4309,21 +4339,21 @@
         <v>21</v>
       </c>
       <c r="J128" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E129" s="10">
-        <v>44734.613470636577</v>
+        <v>44734.687912719906</v>
       </c>
       <c r="F129" s="10">
-        <v>44734.613470636577</v>
+        <v>44734.687912719906</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H129" t="s">
         <v>22</v>
@@ -4335,18 +4365,18 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E130" s="10">
-        <v>44734.61362744213</v>
+        <v>44734.687023495368</v>
       </c>
       <c r="F130" s="10">
-        <v>44734.61362744213</v>
+        <v>44734.687023495368</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H130" t="s">
         <v>24</v>
@@ -4355,21 +4385,21 @@
         <v>25</v>
       </c>
       <c r="J130" s="17">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E131" s="10">
-        <v>44735.794772430556</v>
+        <v>44734.613674016204</v>
       </c>
       <c r="F131" s="10">
-        <v>44735.794772430556</v>
+        <v>44734.613674016204</v>
       </c>
       <c r="G131">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
@@ -4378,21 +4408,21 @@
         <v>15</v>
       </c>
       <c r="J131" s="17">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E132" s="10">
-        <v>44735.794930856478</v>
+        <v>44734.613498310187</v>
       </c>
       <c r="F132" s="10">
-        <v>44735.794930856478</v>
+        <v>44734.613498310187</v>
       </c>
       <c r="G132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>16</v>
@@ -4401,21 +4431,21 @@
         <v>17</v>
       </c>
       <c r="J132" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E133" s="10">
-        <v>44735.794303738425</v>
+        <v>44734.614035706021</v>
       </c>
       <c r="F133" s="10">
-        <v>44735.794303738425</v>
+        <v>44734.614035706021</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H133" t="s">
         <v>18</v>
@@ -4424,21 +4454,21 @@
         <v>19</v>
       </c>
       <c r="J133" s="17">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E134" s="10">
-        <v>44735.794417592595</v>
+        <v>44734.61397046296</v>
       </c>
       <c r="F134" s="10">
-        <v>44735.794417592595</v>
+        <v>44734.61397046296</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H134" t="s">
         <v>20</v>
@@ -4447,21 +4477,21 @@
         <v>21</v>
       </c>
       <c r="J134" s="17">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E135" s="10">
-        <v>44735.794595740743</v>
+        <v>44734.613891712965</v>
       </c>
       <c r="F135" s="10">
-        <v>44735.794595740743</v>
+        <v>44734.613891712965</v>
       </c>
       <c r="G135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H135" t="s">
         <v>22</v>
@@ -4470,21 +4500,21 @@
         <v>23</v>
       </c>
       <c r="J135" s="17">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E136" s="10">
-        <v>44735.795015104166</v>
+        <v>44734.613328692132</v>
       </c>
       <c r="F136" s="10">
-        <v>44735.795015104166</v>
+        <v>44734.613328692132</v>
       </c>
       <c r="G136">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>24</v>
@@ -4493,21 +4523,21 @@
         <v>25</v>
       </c>
       <c r="J136" s="17">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E137" s="10">
-        <v>44735.791927881946</v>
+        <v>44734.613845162035</v>
       </c>
       <c r="F137" s="10">
-        <v>44735.791927881946</v>
+        <v>44734.613845162035</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H137" t="s">
         <v>14</v>
@@ -4516,21 +4546,21 @@
         <v>15</v>
       </c>
       <c r="J137" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E138" s="10">
-        <v>44735.792829039354</v>
+        <v>44734.613388020836</v>
       </c>
       <c r="F138" s="10">
-        <v>44735.792829039354</v>
+        <v>44734.613388020836</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>16</v>
@@ -4539,21 +4569,21 @@
         <v>17</v>
       </c>
       <c r="J138" s="17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E139" s="10">
-        <v>44735.792137673612</v>
+        <v>44734.613762152774</v>
       </c>
       <c r="F139" s="10">
-        <v>44735.792137673612</v>
+        <v>44734.613762152774</v>
       </c>
       <c r="G139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H139" t="s">
         <v>18</v>
@@ -4562,21 +4592,21 @@
         <v>19</v>
       </c>
       <c r="J139" s="17">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E140" s="10">
-        <v>44735.791833761577</v>
+        <v>44734.613964525466</v>
       </c>
       <c r="F140" s="10">
-        <v>44735.791833761577</v>
+        <v>44734.613964525466</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H140" t="s">
         <v>20</v>
@@ -4585,21 +4615,21 @@
         <v>21</v>
       </c>
       <c r="J140" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E141" s="10">
-        <v>44735.792637511571</v>
+        <v>44734.613470636577</v>
       </c>
       <c r="F141" s="10">
-        <v>44735.792637511571</v>
+        <v>44734.613470636577</v>
       </c>
       <c r="G141">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>22</v>
@@ -4608,21 +4638,21 @@
         <v>23</v>
       </c>
       <c r="J141" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E142" s="10">
-        <v>44735.792303819442</v>
+        <v>44734.61362744213</v>
       </c>
       <c r="F142" s="10">
-        <v>44735.792303819442</v>
+        <v>44734.61362744213</v>
       </c>
       <c r="G142">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H142" t="s">
         <v>24</v>
@@ -4631,21 +4661,21 @@
         <v>25</v>
       </c>
       <c r="J142" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E143" s="10">
-        <v>44735.623212245373</v>
+        <v>44735.794772430556</v>
       </c>
       <c r="F143" s="10">
-        <v>44735.623212245373</v>
+        <v>44735.794772430556</v>
       </c>
       <c r="G143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H143" t="s">
         <v>14</v>
@@ -4654,21 +4684,21 @@
         <v>15</v>
       </c>
       <c r="J143" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E144" s="10">
-        <v>44735.622797569442</v>
+        <v>44735.794930856478</v>
       </c>
       <c r="F144" s="10">
-        <v>44735.622797569442</v>
+        <v>44735.794930856478</v>
       </c>
       <c r="G144">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H144" t="s">
         <v>16</v>
@@ -4677,21 +4707,21 @@
         <v>17</v>
       </c>
       <c r="J144" s="17">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E145" s="10">
-        <v>44735.622691226854</v>
+        <v>44735.794303738425</v>
       </c>
       <c r="F145" s="10">
-        <v>44735.622691226854</v>
+        <v>44735.794303738425</v>
       </c>
       <c r="G145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>18</v>
@@ -4700,21 +4730,21 @@
         <v>19</v>
       </c>
       <c r="J145" s="17">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E146" s="10">
-        <v>44735.622869733794</v>
+        <v>44735.794417592595</v>
       </c>
       <c r="F146" s="10">
-        <v>44735.622869733794</v>
+        <v>44735.794417592595</v>
       </c>
       <c r="G146">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
         <v>20</v>
@@ -4723,21 +4753,21 @@
         <v>21</v>
       </c>
       <c r="J146" s="17">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E147" s="10">
-        <v>44735.622391377314</v>
+        <v>44735.794595740743</v>
       </c>
       <c r="F147" s="10">
-        <v>44735.622391377314</v>
+        <v>44735.794595740743</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H147" t="s">
         <v>22</v>
@@ -4746,21 +4776,21 @@
         <v>23</v>
       </c>
       <c r="J147" s="17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E148" s="10">
-        <v>44735.623065219908</v>
+        <v>44735.795015104166</v>
       </c>
       <c r="F148" s="10">
-        <v>44735.623065219908</v>
+        <v>44735.795015104166</v>
       </c>
       <c r="G148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H148" t="s">
         <v>24</v>
@@ -4769,21 +4799,21 @@
         <v>25</v>
       </c>
       <c r="J148" s="17">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E149" s="10">
-        <v>44735.747202037041</v>
+        <v>44735.791927881946</v>
       </c>
       <c r="F149" s="10">
-        <v>44735.747202037041</v>
+        <v>44735.791927881946</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>14</v>
@@ -4792,21 +4822,21 @@
         <v>15</v>
       </c>
       <c r="J149" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E150" s="10">
-        <v>44735.747485914355</v>
+        <v>44735.792829039354</v>
       </c>
       <c r="F150" s="10">
-        <v>44735.747485914355</v>
+        <v>44735.792829039354</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H150" t="s">
         <v>16</v>
@@ -4815,21 +4845,21 @@
         <v>17</v>
       </c>
       <c r="J150" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E151" s="10">
-        <v>44735.746997372684</v>
+        <v>44735.792137673612</v>
       </c>
       <c r="F151" s="10">
-        <v>44735.746997372684</v>
+        <v>44735.792137673612</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151" t="s">
         <v>18</v>
@@ -4838,18 +4868,18 @@
         <v>19</v>
       </c>
       <c r="J151" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E152" s="10">
-        <v>44735.746691805558</v>
+        <v>44735.791833761577</v>
       </c>
       <c r="F152" s="10">
-        <v>44735.746691805558</v>
+        <v>44735.791833761577</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -4861,21 +4891,21 @@
         <v>21</v>
       </c>
       <c r="J152" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E153" s="10">
-        <v>44735.747382881942</v>
+        <v>44735.792637511571</v>
       </c>
       <c r="F153" s="10">
-        <v>44735.747382881942</v>
+        <v>44735.792637511571</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H153" t="s">
         <v>22</v>
@@ -4884,21 +4914,21 @@
         <v>23</v>
       </c>
       <c r="J153" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E154" s="10">
-        <v>44735.747882314812</v>
+        <v>44735.792303819442</v>
       </c>
       <c r="F154" s="10">
-        <v>44735.747882314812</v>
+        <v>44735.792303819442</v>
       </c>
       <c r="G154">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H154" t="s">
         <v>24</v>
@@ -4907,18 +4937,18 @@
         <v>25</v>
       </c>
       <c r="J154" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E155" s="10">
-        <v>44734.625561203706</v>
+        <v>44735.623212245373</v>
       </c>
       <c r="F155" s="10">
-        <v>44734.625561203706</v>
+        <v>44735.623212245373</v>
       </c>
       <c r="G155">
         <v>6</v>
@@ -4930,18 +4960,18 @@
         <v>15</v>
       </c>
       <c r="J155" s="17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E156" s="10">
-        <v>44734.62499916667</v>
+        <v>44735.622797569442</v>
       </c>
       <c r="F156" s="10">
-        <v>44734.62499916667</v>
+        <v>44735.622797569442</v>
       </c>
       <c r="G156">
         <v>3</v>
@@ -4953,18 +4983,18 @@
         <v>17</v>
       </c>
       <c r="J156" s="17">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E157" s="10">
-        <v>44734.624931655089</v>
+        <v>44735.622691226854</v>
       </c>
       <c r="F157" s="10">
-        <v>44734.624931655089</v>
+        <v>44735.622691226854</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -4979,18 +5009,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E158" s="10">
-        <v>44734.625486157405</v>
+        <v>44735.622869733794</v>
       </c>
       <c r="F158" s="10">
-        <v>44734.625486157405</v>
+        <v>44735.622869733794</v>
       </c>
       <c r="G158">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H158" t="s">
         <v>20</v>
@@ -4999,18 +5029,18 @@
         <v>21</v>
       </c>
       <c r="J158" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E159" s="10">
-        <v>44734.624846736115</v>
+        <v>44735.622391377314</v>
       </c>
       <c r="F159" s="10">
-        <v>44734.624846736115</v>
+        <v>44735.622391377314</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -5022,21 +5052,21 @@
         <v>23</v>
       </c>
       <c r="J159" s="17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="E160" s="10">
-        <v>44734.625403518519</v>
+        <v>44735.623065219908</v>
       </c>
       <c r="F160" s="10">
-        <v>44734.625403518519</v>
+        <v>44735.623065219908</v>
       </c>
       <c r="G160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H160" t="s">
         <v>24</v>
@@ -5045,6 +5075,696 @@
         <v>25</v>
       </c>
       <c r="J160" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>1037</v>
+      </c>
+      <c r="E161" s="10">
+        <v>44736.775639537038</v>
+      </c>
+      <c r="F161" s="10">
+        <v>44736.775639537038</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>1037</v>
+      </c>
+      <c r="E162" s="10">
+        <v>44736.77596835648</v>
+      </c>
+      <c r="F162" s="10">
+        <v>44736.77596835648</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+      <c r="H162" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" t="s">
+        <v>17</v>
+      </c>
+      <c r="J162" s="17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>1037</v>
+      </c>
+      <c r="E163" s="10">
+        <v>44736.776083379627</v>
+      </c>
+      <c r="F163" s="10">
+        <v>44736.776083379627</v>
+      </c>
+      <c r="G163">
+        <v>4</v>
+      </c>
+      <c r="H163" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" s="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>1037</v>
+      </c>
+      <c r="E164" s="10">
+        <v>44736.775824398152</v>
+      </c>
+      <c r="F164" s="10">
+        <v>44736.775824398152</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" t="s">
+        <v>21</v>
+      </c>
+      <c r="J164" s="17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>1037</v>
+      </c>
+      <c r="E165" s="10">
+        <v>44736.77640855324</v>
+      </c>
+      <c r="F165" s="10">
+        <v>44736.77640855324</v>
+      </c>
+      <c r="G165">
+        <v>6</v>
+      </c>
+      <c r="H165" t="s">
+        <v>22</v>
+      </c>
+      <c r="I165" t="s">
+        <v>23</v>
+      </c>
+      <c r="J165" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>1037</v>
+      </c>
+      <c r="E166" s="10">
+        <v>44736.776315613424</v>
+      </c>
+      <c r="F166" s="10">
+        <v>44736.776315613424</v>
+      </c>
+      <c r="G166">
+        <v>5</v>
+      </c>
+      <c r="H166" t="s">
+        <v>24</v>
+      </c>
+      <c r="I166" t="s">
+        <v>25</v>
+      </c>
+      <c r="J166" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>1039</v>
+      </c>
+      <c r="E167" s="10">
+        <v>44735.747202037041</v>
+      </c>
+      <c r="F167" s="10">
+        <v>44735.747202037041</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>1039</v>
+      </c>
+      <c r="E168" s="10">
+        <v>44735.747485914355</v>
+      </c>
+      <c r="F168" s="10">
+        <v>44735.747485914355</v>
+      </c>
+      <c r="G168">
+        <v>5</v>
+      </c>
+      <c r="H168" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A169">
+        <v>1039</v>
+      </c>
+      <c r="E169" s="10">
+        <v>44735.746997372684</v>
+      </c>
+      <c r="F169" s="10">
+        <v>44735.746997372684</v>
+      </c>
+      <c r="G169">
+        <v>2</v>
+      </c>
+      <c r="H169" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>1039</v>
+      </c>
+      <c r="E170" s="10">
+        <v>44735.746691805558</v>
+      </c>
+      <c r="F170" s="10">
+        <v>44735.746691805558</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>20</v>
+      </c>
+      <c r="I170" t="s">
+        <v>21</v>
+      </c>
+      <c r="J170" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>1039</v>
+      </c>
+      <c r="E171" s="10">
+        <v>44735.747382881942</v>
+      </c>
+      <c r="F171" s="10">
+        <v>44735.747382881942</v>
+      </c>
+      <c r="G171">
+        <v>4</v>
+      </c>
+      <c r="H171" t="s">
+        <v>22</v>
+      </c>
+      <c r="I171" t="s">
+        <v>23</v>
+      </c>
+      <c r="J171" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>1039</v>
+      </c>
+      <c r="E172" s="10">
+        <v>44735.747882314812</v>
+      </c>
+      <c r="F172" s="10">
+        <v>44735.747882314812</v>
+      </c>
+      <c r="G172">
+        <v>6</v>
+      </c>
+      <c r="H172" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" t="s">
+        <v>25</v>
+      </c>
+      <c r="J172" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>1040</v>
+      </c>
+      <c r="E173" s="10">
+        <v>44736.742823043984</v>
+      </c>
+      <c r="F173" s="10">
+        <v>44736.742823043984</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>1040</v>
+      </c>
+      <c r="E174" s="10">
+        <v>44736.742691574073</v>
+      </c>
+      <c r="F174" s="10">
+        <v>44736.742691574073</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" t="s">
+        <v>17</v>
+      </c>
+      <c r="J174" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>1040</v>
+      </c>
+      <c r="E175" s="10">
+        <v>44736.743309687503</v>
+      </c>
+      <c r="F175" s="10">
+        <v>44736.743309687503</v>
+      </c>
+      <c r="G175">
+        <v>6</v>
+      </c>
+      <c r="H175" t="s">
+        <v>18</v>
+      </c>
+      <c r="I175" t="s">
+        <v>19</v>
+      </c>
+      <c r="J175" s="17">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>1040</v>
+      </c>
+      <c r="E176" s="10">
+        <v>44736.743096481485</v>
+      </c>
+      <c r="F176" s="10">
+        <v>44736.743096481485</v>
+      </c>
+      <c r="G176">
+        <v>4</v>
+      </c>
+      <c r="H176" t="s">
+        <v>20</v>
+      </c>
+      <c r="I176" t="s">
+        <v>21</v>
+      </c>
+      <c r="J176" s="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>1040</v>
+      </c>
+      <c r="E177" s="10">
+        <v>44736.743202361111</v>
+      </c>
+      <c r="F177" s="10">
+        <v>44736.743202361111</v>
+      </c>
+      <c r="G177">
+        <v>5</v>
+      </c>
+      <c r="H177" t="s">
+        <v>22</v>
+      </c>
+      <c r="I177" t="s">
+        <v>23</v>
+      </c>
+      <c r="J177" s="17">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>1040</v>
+      </c>
+      <c r="E178" s="10">
+        <v>44736.74301583333</v>
+      </c>
+      <c r="F178" s="10">
+        <v>44736.74301583333</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+      <c r="H178" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178" t="s">
+        <v>25</v>
+      </c>
+      <c r="J178" s="17">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>1046</v>
+      </c>
+      <c r="E179" s="10">
+        <v>44736.783419976855</v>
+      </c>
+      <c r="F179" s="10">
+        <v>44736.783419976855</v>
+      </c>
+      <c r="G179">
+        <v>2</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>1046</v>
+      </c>
+      <c r="E180" s="10">
+        <v>44736.783980115739</v>
+      </c>
+      <c r="F180" s="10">
+        <v>44736.783980115739</v>
+      </c>
+      <c r="G180">
+        <v>6</v>
+      </c>
+      <c r="H180" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" t="s">
+        <v>17</v>
+      </c>
+      <c r="J180" s="17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A181">
+        <v>1046</v>
+      </c>
+      <c r="E181" s="10">
+        <v>44736.783577986113</v>
+      </c>
+      <c r="F181" s="10">
+        <v>44736.783577986113</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+      <c r="H181" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" t="s">
+        <v>19</v>
+      </c>
+      <c r="J181" s="17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A182">
+        <v>1046</v>
+      </c>
+      <c r="E182" s="10">
+        <v>44736.783709097224</v>
+      </c>
+      <c r="F182" s="10">
+        <v>44736.783709097224</v>
+      </c>
+      <c r="G182">
+        <v>4</v>
+      </c>
+      <c r="H182" t="s">
+        <v>20</v>
+      </c>
+      <c r="I182" t="s">
+        <v>21</v>
+      </c>
+      <c r="J182" s="17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A183">
+        <v>1046</v>
+      </c>
+      <c r="E183" s="10">
+        <v>44736.783871319443</v>
+      </c>
+      <c r="F183" s="10">
+        <v>44736.783871319443</v>
+      </c>
+      <c r="G183">
+        <v>5</v>
+      </c>
+      <c r="H183" t="s">
+        <v>22</v>
+      </c>
+      <c r="I183" t="s">
+        <v>23</v>
+      </c>
+      <c r="J183" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A184">
+        <v>1046</v>
+      </c>
+      <c r="E184" s="10">
+        <v>44736.783210324073</v>
+      </c>
+      <c r="F184" s="10">
+        <v>44736.783210324073</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184" t="s">
+        <v>24</v>
+      </c>
+      <c r="I184" t="s">
+        <v>25</v>
+      </c>
+      <c r="J184" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A185">
+        <v>1048</v>
+      </c>
+      <c r="E185" s="10">
+        <v>44734.625561203706</v>
+      </c>
+      <c r="F185" s="10">
+        <v>44734.625561203706</v>
+      </c>
+      <c r="G185">
+        <v>6</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" t="s">
+        <v>15</v>
+      </c>
+      <c r="J185" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A186">
+        <v>1048</v>
+      </c>
+      <c r="E186" s="10">
+        <v>44734.62499916667</v>
+      </c>
+      <c r="F186" s="10">
+        <v>44734.62499916667</v>
+      </c>
+      <c r="G186">
+        <v>3</v>
+      </c>
+      <c r="H186" t="s">
+        <v>16</v>
+      </c>
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A187">
+        <v>1048</v>
+      </c>
+      <c r="E187" s="10">
+        <v>44734.624931655089</v>
+      </c>
+      <c r="F187" s="10">
+        <v>44734.624931655089</v>
+      </c>
+      <c r="G187">
+        <v>2</v>
+      </c>
+      <c r="H187" t="s">
+        <v>18</v>
+      </c>
+      <c r="I187" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" s="17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A188">
+        <v>1048</v>
+      </c>
+      <c r="E188" s="10">
+        <v>44734.625486157405</v>
+      </c>
+      <c r="F188" s="10">
+        <v>44734.625486157405</v>
+      </c>
+      <c r="G188">
+        <v>5</v>
+      </c>
+      <c r="H188" t="s">
+        <v>20</v>
+      </c>
+      <c r="I188" t="s">
+        <v>21</v>
+      </c>
+      <c r="J188" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A189">
+        <v>1048</v>
+      </c>
+      <c r="E189" s="10">
+        <v>44734.624846736115</v>
+      </c>
+      <c r="F189" s="10">
+        <v>44734.624846736115</v>
+      </c>
+      <c r="G189">
+        <v>1</v>
+      </c>
+      <c r="H189" t="s">
+        <v>22</v>
+      </c>
+      <c r="I189" t="s">
+        <v>23</v>
+      </c>
+      <c r="J189" s="17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A190">
+        <v>1048</v>
+      </c>
+      <c r="E190" s="10">
+        <v>44734.625403518519</v>
+      </c>
+      <c r="F190" s="10">
+        <v>44734.625403518519</v>
+      </c>
+      <c r="G190">
+        <v>4</v>
+      </c>
+      <c r="H190" t="s">
+        <v>24</v>
+      </c>
+      <c r="I190" t="s">
+        <v>25</v>
+      </c>
+      <c r="J190" s="17">
         <v>60</v>
       </c>
     </row>
@@ -5056,7 +5776,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J4 A5:A160 E5:J160" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J4 A5:A190 E5:J190" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/SEV_v2_-_Training_refresher_for_sess_2_-_Raw_Data.xlsx
+++ b/data/SEV_v2_-_Training_refresher_for_sess_2_-_Raw_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aubreydubois/Documents/SEV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EBD54FA-4237-A44E-BA2B-693880813E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A656F-8403-A042-8E98-6A5F1203A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="25220" windowHeight="13580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverSheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="30">
   <si>
     <t>Participant Code</t>
   </si>
@@ -254,18 +254,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -315,6 +305,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E4899D-A486-4C2A-8161-E547676B7D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113F6E44-2AF9-4245-B6E9-6B09E0ECB09C}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -692,150 +693,150 @@
     <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="7" width="18.6640625" style="8" customWidth="1"/>
+    <col min="6" max="7" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -843,10 +844,10 @@
       <c r="A12">
         <v>1002</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="4">
         <v>44734.745704224537</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <v>44734.747354976855</v>
       </c>
     </row>
@@ -854,10 +855,10 @@
       <c r="A13">
         <v>1003</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="4">
         <v>44734.663724178237</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>44734.665382025465</v>
       </c>
     </row>
@@ -865,10 +866,10 @@
       <c r="A14">
         <v>1006</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="4">
         <v>44735.665051678239</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>44735.666112696759</v>
       </c>
     </row>
@@ -881,10 +882,10 @@
       <c r="A16">
         <v>1008</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="4">
         <v>44734.66293835648</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="4">
         <v>44734.664123726849</v>
       </c>
     </row>
@@ -892,10 +893,10 @@
       <c r="A17">
         <v>1009</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>44734.758016689811</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>44734.75884800926</v>
       </c>
     </row>
@@ -903,10 +904,10 @@
       <c r="A18">
         <v>1010</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="4">
         <v>44734.794990532406</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>44734.795794594909</v>
       </c>
     </row>
@@ -914,10 +915,10 @@
       <c r="A19">
         <v>1012</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>44735.671104664354</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>44735.672819432868</v>
       </c>
     </row>
@@ -925,10 +926,10 @@
       <c r="A20">
         <v>1015</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="4">
         <v>44734.799933564813</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>44734.800415543985</v>
       </c>
     </row>
@@ -936,10 +937,10 @@
       <c r="A21">
         <v>1016</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>44734.793970509258</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>44734.794621157409</v>
       </c>
     </row>
@@ -947,10 +948,10 @@
       <c r="A22">
         <v>1017</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="4">
         <v>44735.791830289352</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="4">
         <v>44735.793553263888</v>
       </c>
     </row>
@@ -958,10 +959,10 @@
       <c r="A23">
         <v>1018</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="4">
         <v>44735.792083726854</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4">
         <v>44735.793253668984</v>
       </c>
     </row>
@@ -969,10 +970,10 @@
       <c r="A24">
         <v>1019</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="4">
         <v>44734.675648078701</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4">
         <v>44734.678025833331</v>
       </c>
     </row>
@@ -980,10 +981,10 @@
       <c r="A25">
         <v>1021</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="4">
         <v>44735.798255347225</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4">
         <v>44735.798908599536</v>
       </c>
     </row>
@@ -991,10 +992,10 @@
       <c r="A26">
         <v>1022</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="4">
         <v>44735.619166215278</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="4">
         <v>44735.619945810184</v>
       </c>
     </row>
@@ -1002,10 +1003,10 @@
       <c r="A27">
         <v>1023</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="4">
         <v>44735.660299895833</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="4">
         <v>44735.660976770836</v>
       </c>
     </row>
@@ -1013,10 +1014,10 @@
       <c r="A28">
         <v>1024</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="4">
         <v>44736.670089270832</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4">
         <v>44736.670842291664</v>
       </c>
     </row>
@@ -1024,10 +1025,10 @@
       <c r="A29">
         <v>1025</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="4">
         <v>44734.62094267361</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4">
         <v>44734.621838437502</v>
       </c>
     </row>
@@ -1035,10 +1036,10 @@
       <c r="A30">
         <v>1026</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="4">
         <v>44734.785501817132</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4">
         <v>44734.786344456021</v>
       </c>
     </row>
@@ -1046,10 +1047,10 @@
       <c r="A31">
         <v>1027</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="4">
         <v>44736.79449403935</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="4">
         <v>44736.795284282409</v>
       </c>
     </row>
@@ -1057,10 +1058,10 @@
       <c r="A32">
         <v>1028</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="4">
         <v>44735.659314131946</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="4">
         <v>44735.659732060187</v>
       </c>
     </row>
@@ -1073,10 +1074,10 @@
       <c r="A34">
         <v>1031</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="4">
         <v>44734.686553946762</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="4">
         <v>44734.687912719906</v>
       </c>
     </row>
@@ -1084,10 +1085,10 @@
       <c r="A35">
         <v>1032</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="4">
         <v>44734.613328692132</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="4">
         <v>44734.614035706021</v>
       </c>
     </row>
@@ -1095,10 +1096,10 @@
       <c r="A36">
         <v>1033</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="4">
         <v>44734.613388020836</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="4">
         <v>44734.613964525466</v>
       </c>
     </row>
@@ -1106,10 +1107,10 @@
       <c r="A37">
         <v>1034</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="4">
         <v>44735.794303738425</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="4">
         <v>44735.795015104166</v>
       </c>
     </row>
@@ -1117,10 +1118,10 @@
       <c r="A38">
         <v>1035</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <v>44735.791833761577</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="4">
         <v>44735.792829039354</v>
       </c>
     </row>
@@ -1128,10 +1129,10 @@
       <c r="A39">
         <v>1036</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="4">
         <v>44735.622391377314</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="4">
         <v>44735.623212245373</v>
       </c>
     </row>
@@ -1139,10 +1140,10 @@
       <c r="A40">
         <v>1037</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="4">
         <v>44736.775639537038</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="4">
         <v>44736.77640855324</v>
       </c>
     </row>
@@ -1150,10 +1151,10 @@
       <c r="A41">
         <v>1039</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="4">
         <v>44735.746691805558</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="4">
         <v>44735.747882314812</v>
       </c>
     </row>
@@ -1161,10 +1162,10 @@
       <c r="A42">
         <v>1040</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="4">
         <v>44736.742691574073</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="4">
         <v>44736.743309687503</v>
       </c>
     </row>
@@ -1172,15 +1173,21 @@
       <c r="A43">
         <v>1045</v>
       </c>
+      <c r="F43" s="4">
+        <v>44743.665053900462</v>
+      </c>
+      <c r="G43" s="4">
+        <v>44743.665830740742</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>1046</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="4">
         <v>44736.783210324073</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="4">
         <v>44736.783980115739</v>
       </c>
     </row>
@@ -1188,26 +1195,26 @@
       <c r="A45">
         <v>1048</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="4">
         <v>44734.624846736115</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="4">
         <v>44734.625561203706</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:J9"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -1219,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19808A0-1A41-4E72-B90B-4DEEF141EA05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D21CB-2492-4676-B8F1-30ECD8A1EF9E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1235,22 +1242,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="9"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1328,11 +1335,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F4DF4F-0246-40FA-8A9D-610543499B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA4DF3D-318C-4B73-A971-7000EC6AEBE0}">
   <sheetPr>
     <tabColor rgb="FF63666A"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
@@ -1343,173 +1350,158 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:3" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" s="12" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407F5BF-144B-4A73-8B4F-7C705F674FD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD4E15-2B93-4E73-89DA-BC59A4370ED2}">
   <sheetPr>
     <tabColor rgb="FFD90401"/>
   </sheetPr>
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B185" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" style="6" customWidth="1"/>
     <col min="7" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="25" style="17" customWidth="1"/>
+    <col min="10" max="10" width="25" style="13" customWidth="1"/>
     <col min="11" max="19" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="18" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="J2" s="19" t="s">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="J2" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="16" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="J3" s="24" t="s">
+    <row r="3" spans="1:10" s="12" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="J3" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20">
+    <row r="5" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16">
         <v>1002</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17">
         <v>44734.747055138891</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="17">
         <v>44734.747055138891</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="18">
         <v>32</v>
       </c>
     </row>
@@ -1517,10 +1509,10 @@
       <c r="A6">
         <v>1002</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="6">
         <v>44734.747354976855</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <v>44734.747354976855</v>
       </c>
       <c r="G6">
@@ -1532,7 +1524,7 @@
       <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <v>62</v>
       </c>
     </row>
@@ -1540,10 +1532,10 @@
       <c r="A7">
         <v>1002</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>44734.745934837963</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>44734.745934837963</v>
       </c>
       <c r="G7">
@@ -1555,7 +1547,7 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="13">
         <v>65</v>
       </c>
     </row>
@@ -1563,10 +1555,10 @@
       <c r="A8">
         <v>1002</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>44734.747250995373</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>44734.747250995373</v>
       </c>
       <c r="G8">
@@ -1578,7 +1570,7 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="13">
         <v>33</v>
       </c>
     </row>
@@ -1586,10 +1578,10 @@
       <c r="A9">
         <v>1002</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>44734.746935763891</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>44734.746935763891</v>
       </c>
       <c r="G9">
@@ -1601,7 +1593,7 @@
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>41</v>
       </c>
     </row>
@@ -1609,10 +1601,10 @@
       <c r="A10">
         <v>1002</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>44734.745704224537</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>44734.745704224537</v>
       </c>
       <c r="G10">
@@ -1624,7 +1616,7 @@
       <c r="I10" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>44</v>
       </c>
     </row>
@@ -1632,10 +1624,10 @@
       <c r="A11">
         <v>1003</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>44734.665219085648</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="6">
         <v>44734.665219085648</v>
       </c>
       <c r="G11">
@@ -1647,7 +1639,7 @@
       <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="13">
         <v>70</v>
       </c>
     </row>
@@ -1655,10 +1647,10 @@
       <c r="A12">
         <v>1003</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>44734.664792187497</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>44734.664792187497</v>
       </c>
       <c r="G12">
@@ -1670,7 +1662,7 @@
       <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>79</v>
       </c>
     </row>
@@ -1678,10 +1670,10 @@
       <c r="A13">
         <v>1003</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>44734.665382025465</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>44734.665382025465</v>
       </c>
       <c r="G13">
@@ -1693,7 +1685,7 @@
       <c r="I13" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>90</v>
       </c>
     </row>
@@ -1701,10 +1693,10 @@
       <c r="A14">
         <v>1003</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>44734.663724178237</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>44734.663724178237</v>
       </c>
       <c r="G14">
@@ -1716,7 +1708,7 @@
       <c r="I14" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <v>50</v>
       </c>
     </row>
@@ -1724,10 +1716,10 @@
       <c r="A15">
         <v>1003</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="6">
         <v>44734.664404374998</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>44734.664404374998</v>
       </c>
       <c r="G15">
@@ -1739,7 +1731,7 @@
       <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>65</v>
       </c>
     </row>
@@ -1747,10 +1739,10 @@
       <c r="A16">
         <v>1003</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>44734.665025162038</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>44734.665025162038</v>
       </c>
       <c r="G16">
@@ -1762,7 +1754,7 @@
       <c r="I16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>63</v>
       </c>
     </row>
@@ -1770,10 +1762,10 @@
       <c r="A17">
         <v>1006</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="6">
         <v>44735.666112696759</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="6">
         <v>44735.666112696759</v>
       </c>
       <c r="G17">
@@ -1785,7 +1777,7 @@
       <c r="I17" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>14</v>
       </c>
     </row>
@@ -1793,10 +1785,10 @@
       <c r="A18">
         <v>1006</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="6">
         <v>44735.665989548608</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="6">
         <v>44735.665989548608</v>
       </c>
       <c r="G18">
@@ -1808,7 +1800,7 @@
       <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="13">
         <v>74</v>
       </c>
     </row>
@@ -1816,10 +1808,10 @@
       <c r="A19">
         <v>1006</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="6">
         <v>44735.665872083337</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="6">
         <v>44735.665872083337</v>
       </c>
       <c r="G19">
@@ -1831,7 +1823,7 @@
       <c r="I19" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="13">
         <v>63</v>
       </c>
     </row>
@@ -1839,10 +1831,10 @@
       <c r="A20">
         <v>1006</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="6">
         <v>44735.66567855324</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="6">
         <v>44735.66567855324</v>
       </c>
       <c r="G20">
@@ -1854,7 +1846,7 @@
       <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="13">
         <v>27</v>
       </c>
     </row>
@@ -1862,10 +1854,10 @@
       <c r="A21">
         <v>1006</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="6">
         <v>44735.665051678239</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="6">
         <v>44735.665051678239</v>
       </c>
       <c r="G21">
@@ -1877,7 +1869,7 @@
       <c r="I21" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="13">
         <v>41</v>
       </c>
     </row>
@@ -1885,10 +1877,10 @@
       <c r="A22">
         <v>1006</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="6">
         <v>44735.665549513891</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <v>44735.665549513891</v>
       </c>
       <c r="G22">
@@ -1900,7 +1892,7 @@
       <c r="I22" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="13">
         <v>35</v>
       </c>
     </row>
@@ -1908,10 +1900,10 @@
       <c r="A23">
         <v>1008</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="6">
         <v>44734.663716944444</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="6">
         <v>44734.663716944444</v>
       </c>
       <c r="G23">
@@ -1923,7 +1915,7 @@
       <c r="I23" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="13">
         <v>40</v>
       </c>
     </row>
@@ -1931,10 +1923,10 @@
       <c r="A24">
         <v>1008</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="6">
         <v>44734.663895601851</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="6">
         <v>44734.663895601851</v>
       </c>
       <c r="G24">
@@ -1946,7 +1938,7 @@
       <c r="I24" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="13">
         <v>65</v>
       </c>
     </row>
@@ -1954,10 +1946,10 @@
       <c r="A25">
         <v>1008</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="6">
         <v>44734.66349013889</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="6">
         <v>44734.66349013889</v>
       </c>
       <c r="G25">
@@ -1969,7 +1961,7 @@
       <c r="I25" t="s">
         <v>19</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="13">
         <v>85</v>
       </c>
     </row>
@@ -1977,10 +1969,10 @@
       <c r="A26">
         <v>1008</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="6">
         <v>44734.66293835648</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="6">
         <v>44734.66293835648</v>
       </c>
       <c r="G26">
@@ -1992,7 +1984,7 @@
       <c r="I26" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="13">
         <v>42</v>
       </c>
     </row>
@@ -2000,10 +1992,10 @@
       <c r="A27">
         <v>1008</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="6">
         <v>44734.664123726849</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="6">
         <v>44734.664123726849</v>
       </c>
       <c r="G27">
@@ -2015,7 +2007,7 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="13">
         <v>70</v>
       </c>
     </row>
@@ -2023,10 +2015,10 @@
       <c r="A28">
         <v>1008</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="6">
         <v>44734.663220995368</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="6">
         <v>44734.663220995368</v>
       </c>
       <c r="G28">
@@ -2038,7 +2030,7 @@
       <c r="I28" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="13">
         <v>64</v>
       </c>
     </row>
@@ -2046,10 +2038,10 @@
       <c r="A29">
         <v>1009</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="6">
         <v>44734.758274745371</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="6">
         <v>44734.758274745371</v>
       </c>
       <c r="G29">
@@ -2061,7 +2053,7 @@
       <c r="I29" t="s">
         <v>15</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="13">
         <v>15</v>
       </c>
     </row>
@@ -2069,10 +2061,10 @@
       <c r="A30">
         <v>1009</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="6">
         <v>44734.75884800926</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="6">
         <v>44734.75884800926</v>
       </c>
       <c r="G30">
@@ -2084,7 +2076,7 @@
       <c r="I30" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="13">
         <v>69</v>
       </c>
     </row>
@@ -2092,10 +2084,10 @@
       <c r="A31">
         <v>1009</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="6">
         <v>44734.758739594909</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="6">
         <v>44734.758739594909</v>
       </c>
       <c r="G31">
@@ -2107,7 +2099,7 @@
       <c r="I31" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="13">
         <v>73</v>
       </c>
     </row>
@@ -2115,10 +2107,10 @@
       <c r="A32">
         <v>1009</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="6">
         <v>44734.758358182873</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="6">
         <v>44734.758358182873</v>
       </c>
       <c r="G32">
@@ -2130,7 +2122,7 @@
       <c r="I32" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="13">
         <v>9</v>
       </c>
     </row>
@@ -2138,10 +2130,10 @@
       <c r="A33">
         <v>1009</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="6">
         <v>44734.758441018515</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="6">
         <v>44734.758441018515</v>
       </c>
       <c r="G33">
@@ -2153,7 +2145,7 @@
       <c r="I33" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="13">
         <v>19</v>
       </c>
     </row>
@@ -2161,10 +2153,10 @@
       <c r="A34">
         <v>1009</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="6">
         <v>44734.758016689811</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="6">
         <v>44734.758016689811</v>
       </c>
       <c r="G34">
@@ -2176,7 +2168,7 @@
       <c r="I34" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2184,10 +2176,10 @@
       <c r="A35">
         <v>1010</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="6">
         <v>44734.795692708336</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="6">
         <v>44734.795692708336</v>
       </c>
       <c r="G35">
@@ -2199,7 +2191,7 @@
       <c r="I35" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="13">
         <v>14</v>
       </c>
     </row>
@@ -2207,10 +2199,10 @@
       <c r="A36">
         <v>1010</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="6">
         <v>44734.794990532406</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="6">
         <v>44734.794990532406</v>
       </c>
       <c r="G36">
@@ -2222,7 +2214,7 @@
       <c r="I36" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="13">
         <v>40</v>
       </c>
     </row>
@@ -2230,10 +2222,10 @@
       <c r="A37">
         <v>1010</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="6">
         <v>44734.795196087965</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="6">
         <v>44734.795196087965</v>
       </c>
       <c r="G37">
@@ -2245,7 +2237,7 @@
       <c r="I37" t="s">
         <v>19</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="13">
         <v>37</v>
       </c>
     </row>
@@ -2253,10 +2245,10 @@
       <c r="A38">
         <v>1010</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="6">
         <v>44734.795601527781</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="6">
         <v>44734.795601527781</v>
       </c>
       <c r="G38">
@@ -2268,7 +2260,7 @@
       <c r="I38" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2276,10 +2268,10 @@
       <c r="A39">
         <v>1010</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="6">
         <v>44734.795472025464</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="6">
         <v>44734.795472025464</v>
       </c>
       <c r="G39">
@@ -2291,7 +2283,7 @@
       <c r="I39" t="s">
         <v>23</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="13">
         <v>39</v>
       </c>
     </row>
@@ -2299,10 +2291,10 @@
       <c r="A40">
         <v>1010</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="6">
         <v>44734.795794594909</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="6">
         <v>44734.795794594909</v>
       </c>
       <c r="G40">
@@ -2314,7 +2306,7 @@
       <c r="I40" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="13">
         <v>21</v>
       </c>
     </row>
@@ -2322,10 +2314,10 @@
       <c r="A41">
         <v>1012</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="6">
         <v>44735.671104664354</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="6">
         <v>44735.671104664354</v>
       </c>
       <c r="G41">
@@ -2337,7 +2329,7 @@
       <c r="I41" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2345,10 +2337,10 @@
       <c r="A42">
         <v>1012</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="6">
         <v>44735.672108009261</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="6">
         <v>44735.672108009261</v>
       </c>
       <c r="G42">
@@ -2360,7 +2352,7 @@
       <c r="I42" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="13">
         <v>74</v>
       </c>
     </row>
@@ -2368,10 +2360,10 @@
       <c r="A43">
         <v>1012</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="6">
         <v>44735.672819432868</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="6">
         <v>44735.672819432868</v>
       </c>
       <c r="G43">
@@ -2383,7 +2375,7 @@
       <c r="I43" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="13">
         <v>80</v>
       </c>
     </row>
@@ -2391,10 +2383,10 @@
       <c r="A44">
         <v>1012</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="6">
         <v>44735.672245428243</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="6">
         <v>44735.672245428243</v>
       </c>
       <c r="G44">
@@ -2406,7 +2398,7 @@
       <c r="I44" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="13">
         <v>41</v>
       </c>
     </row>
@@ -2414,10 +2406,10 @@
       <c r="A45">
         <v>1012</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="6">
         <v>44735.67149241898</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="6">
         <v>44735.67149241898</v>
       </c>
       <c r="G45">
@@ -2429,7 +2421,7 @@
       <c r="I45" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="13">
         <v>80</v>
       </c>
     </row>
@@ -2437,10 +2429,10 @@
       <c r="A46">
         <v>1012</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="6">
         <v>44735.671687326387</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="6">
         <v>44735.671687326387</v>
       </c>
       <c r="G46">
@@ -2452,7 +2444,7 @@
       <c r="I46" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="13">
         <v>76</v>
       </c>
     </row>
@@ -2460,10 +2452,10 @@
       <c r="A47">
         <v>1015</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="6">
         <v>44734.799933564813</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="6">
         <v>44734.799933564813</v>
       </c>
       <c r="G47">
@@ -2475,7 +2467,7 @@
       <c r="I47" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="13">
         <v>52</v>
       </c>
     </row>
@@ -2483,10 +2475,10 @@
       <c r="A48">
         <v>1015</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="6">
         <v>44734.800175543984</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="6">
         <v>44734.800175543984</v>
       </c>
       <c r="G48">
@@ -2498,7 +2490,7 @@
       <c r="I48" t="s">
         <v>17</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="13">
         <v>88</v>
       </c>
     </row>
@@ -2506,10 +2498,10 @@
       <c r="A49">
         <v>1015</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="6">
         <v>44734.800096192128</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="6">
         <v>44734.800096192128</v>
       </c>
       <c r="G49">
@@ -2521,7 +2513,7 @@
       <c r="I49" t="s">
         <v>19</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="13">
         <v>90</v>
       </c>
     </row>
@@ -2529,10 +2521,10 @@
       <c r="A50">
         <v>1015</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="6">
         <v>44734.800415543985</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="6">
         <v>44734.800415543985</v>
       </c>
       <c r="G50">
@@ -2544,7 +2536,7 @@
       <c r="I50" t="s">
         <v>21</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="13">
         <v>67</v>
       </c>
     </row>
@@ -2552,10 +2544,10 @@
       <c r="A51">
         <v>1015</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="6">
         <v>44734.800339224537</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="6">
         <v>44734.800339224537</v>
       </c>
       <c r="G51">
@@ -2567,7 +2559,7 @@
       <c r="I51" t="s">
         <v>23</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="13">
         <v>82</v>
       </c>
     </row>
@@ -2575,10 +2567,10 @@
       <c r="A52">
         <v>1015</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="6">
         <v>44734.800249351851</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="6">
         <v>44734.800249351851</v>
       </c>
       <c r="G52">
@@ -2590,7 +2582,7 @@
       <c r="I52" t="s">
         <v>25</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="13">
         <v>55</v>
       </c>
     </row>
@@ -2598,10 +2590,10 @@
       <c r="A53">
         <v>1016</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="6">
         <v>44734.79441988426</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="6">
         <v>44734.79441988426</v>
       </c>
       <c r="G53">
@@ -2613,7 +2605,7 @@
       <c r="I53" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="13">
         <v>25</v>
       </c>
     </row>
@@ -2621,10 +2613,10 @@
       <c r="A54">
         <v>1016</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="6">
         <v>44734.794197812502</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="6">
         <v>44734.794197812502</v>
       </c>
       <c r="G54">
@@ -2636,7 +2628,7 @@
       <c r="I54" t="s">
         <v>17</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="13">
         <v>64</v>
       </c>
     </row>
@@ -2644,10 +2636,10 @@
       <c r="A55">
         <v>1016</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="6">
         <v>44734.794621157409</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="6">
         <v>44734.794621157409</v>
       </c>
       <c r="G55">
@@ -2659,7 +2651,7 @@
       <c r="I55" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="13">
         <v>66</v>
       </c>
     </row>
@@ -2667,10 +2659,10 @@
       <c r="A56">
         <v>1016</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="6">
         <v>44734.794310486111</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="6">
         <v>44734.794310486111</v>
       </c>
       <c r="G56">
@@ -2682,7 +2674,7 @@
       <c r="I56" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="13">
         <v>30</v>
       </c>
     </row>
@@ -2690,10 +2682,10 @@
       <c r="A57">
         <v>1016</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="6">
         <v>44734.793970509258</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="6">
         <v>44734.793970509258</v>
       </c>
       <c r="G57">
@@ -2705,7 +2697,7 @@
       <c r="I57" t="s">
         <v>23</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="13">
         <v>45</v>
       </c>
     </row>
@@ -2713,10 +2705,10 @@
       <c r="A58">
         <v>1016</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="6">
         <v>44734.794501273151</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="6">
         <v>44734.794501273151</v>
       </c>
       <c r="G58">
@@ -2728,7 +2720,7 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="13">
         <v>64</v>
       </c>
     </row>
@@ -2736,10 +2728,10 @@
       <c r="A59">
         <v>1017</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="6">
         <v>44735.79211962963</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="6">
         <v>44735.79211962963</v>
       </c>
       <c r="G59">
@@ -2751,7 +2743,7 @@
       <c r="I59" t="s">
         <v>15</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2759,10 +2751,10 @@
       <c r="A60">
         <v>1017</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="6">
         <v>44735.791830289352</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="6">
         <v>44735.791830289352</v>
       </c>
       <c r="G60">
@@ -2774,7 +2766,7 @@
       <c r="I60" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="13">
         <v>40</v>
       </c>
     </row>
@@ -2782,10 +2774,10 @@
       <c r="A61">
         <v>1017</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="6">
         <v>44735.792742685182</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="6">
         <v>44735.792742685182</v>
       </c>
       <c r="G61">
@@ -2797,7 +2789,7 @@
       <c r="I61" t="s">
         <v>19</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="13">
         <v>95</v>
       </c>
     </row>
@@ -2805,10 +2797,10 @@
       <c r="A62">
         <v>1017</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="6">
         <v>44735.793199733795</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="6">
         <v>44735.793199733795</v>
       </c>
       <c r="G62">
@@ -2820,7 +2812,7 @@
       <c r="I62" t="s">
         <v>21</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2828,10 +2820,10 @@
       <c r="A63">
         <v>1017</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="6">
         <v>44735.792356377315</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="6">
         <v>44735.792356377315</v>
       </c>
       <c r="G63">
@@ -2843,7 +2835,7 @@
       <c r="I63" t="s">
         <v>23</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J63" s="13">
         <v>25</v>
       </c>
     </row>
@@ -2851,10 +2843,10 @@
       <c r="A64">
         <v>1017</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="6">
         <v>44735.793553263888</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="6">
         <v>44735.793553263888</v>
       </c>
       <c r="G64">
@@ -2866,7 +2858,7 @@
       <c r="I64" t="s">
         <v>25</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="13">
         <v>70</v>
       </c>
     </row>
@@ -2874,10 +2866,10 @@
       <c r="A65">
         <v>1018</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="6">
         <v>44735.793155381944</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="6">
         <v>44735.793155381944</v>
       </c>
       <c r="G65">
@@ -2889,7 +2881,7 @@
       <c r="I65" t="s">
         <v>15</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J65" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2897,10 +2889,10 @@
       <c r="A66">
         <v>1018</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="6">
         <v>44735.793253668984</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="6">
         <v>44735.793253668984</v>
       </c>
       <c r="G66">
@@ -2912,7 +2904,7 @@
       <c r="I66" t="s">
         <v>17</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J66" s="13">
         <v>57</v>
       </c>
     </row>
@@ -2920,10 +2912,10 @@
       <c r="A67">
         <v>1018</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="6">
         <v>44735.792834027779</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="6">
         <v>44735.792834027779</v>
       </c>
       <c r="G67">
@@ -2935,7 +2927,7 @@
       <c r="I67" t="s">
         <v>19</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="13">
         <v>60</v>
       </c>
     </row>
@@ -2943,10 +2935,10 @@
       <c r="A68">
         <v>1018</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="6">
         <v>44735.792380393519</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="6">
         <v>44735.792380393519</v>
       </c>
       <c r="G68">
@@ -2958,7 +2950,7 @@
       <c r="I68" t="s">
         <v>21</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J68" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2966,10 +2958,10 @@
       <c r="A69">
         <v>1018</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="6">
         <v>44735.792975520832</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="6">
         <v>44735.792975520832</v>
       </c>
       <c r="G69">
@@ -2981,7 +2973,7 @@
       <c r="I69" t="s">
         <v>23</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J69" s="13">
         <v>50</v>
       </c>
     </row>
@@ -2989,10 +2981,10 @@
       <c r="A70">
         <v>1018</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="6">
         <v>44735.792083726854</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="6">
         <v>44735.792083726854</v>
       </c>
       <c r="G70">
@@ -3004,7 +2996,7 @@
       <c r="I70" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="13">
         <v>67</v>
       </c>
     </row>
@@ -3012,10 +3004,10 @@
       <c r="A71">
         <v>1019</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="6">
         <v>44734.675901041664</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="6">
         <v>44734.675901041664</v>
       </c>
       <c r="G71">
@@ -3027,7 +3019,7 @@
       <c r="I71" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J71" s="13">
         <v>87</v>
       </c>
     </row>
@@ -3035,10 +3027,10 @@
       <c r="A72">
         <v>1019</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="6">
         <v>44734.675648078701</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="6">
         <v>44734.675648078701</v>
       </c>
       <c r="G72">
@@ -3050,7 +3042,7 @@
       <c r="I72" t="s">
         <v>17</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J72" s="13">
         <v>92</v>
       </c>
     </row>
@@ -3058,10 +3050,10 @@
       <c r="A73">
         <v>1019</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="6">
         <v>44734.678025833331</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="6">
         <v>44734.678025833331</v>
       </c>
       <c r="G73">
@@ -3073,7 +3065,7 @@
       <c r="I73" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J73" s="13">
         <v>56</v>
       </c>
     </row>
@@ -3081,10 +3073,10 @@
       <c r="A74">
         <v>1019</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="6">
         <v>44734.676364398147</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="6">
         <v>44734.676364398147</v>
       </c>
       <c r="G74">
@@ -3096,7 +3088,7 @@
       <c r="I74" t="s">
         <v>21</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J74" s="13">
         <v>93</v>
       </c>
     </row>
@@ -3104,10 +3096,10 @@
       <c r="A75">
         <v>1019</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="6">
         <v>44734.677148530092</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="6">
         <v>44734.677148530092</v>
       </c>
       <c r="G75">
@@ -3119,7 +3111,7 @@
       <c r="I75" t="s">
         <v>23</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J75" s="13">
         <v>82</v>
       </c>
     </row>
@@ -3127,10 +3119,10 @@
       <c r="A76">
         <v>1019</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="6">
         <v>44734.677560949072</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="6">
         <v>44734.677560949072</v>
       </c>
       <c r="G76">
@@ -3142,7 +3134,7 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J76" s="13">
         <v>72</v>
       </c>
     </row>
@@ -3150,10 +3142,10 @@
       <c r="A77">
         <v>1021</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="6">
         <v>44735.798908599536</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="6">
         <v>44735.798908599536</v>
       </c>
       <c r="G77">
@@ -3165,7 +3157,7 @@
       <c r="I77" t="s">
         <v>15</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J77" s="13">
         <v>24</v>
       </c>
     </row>
@@ -3173,10 +3165,10 @@
       <c r="A78">
         <v>1021</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="6">
         <v>44735.798722893516</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="6">
         <v>44735.798722893516</v>
       </c>
       <c r="G78">
@@ -3188,7 +3180,7 @@
       <c r="I78" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J78" s="13">
         <v>79</v>
       </c>
     </row>
@@ -3196,10 +3188,10 @@
       <c r="A79">
         <v>1021</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="6">
         <v>44735.798629490739</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="6">
         <v>44735.798629490739</v>
       </c>
       <c r="G79">
@@ -3211,7 +3203,7 @@
       <c r="I79" t="s">
         <v>19</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J79" s="13">
         <v>72</v>
       </c>
     </row>
@@ -3219,10 +3211,10 @@
       <c r="A80">
         <v>1021</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="6">
         <v>44735.798383113426</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="6">
         <v>44735.798383113426</v>
       </c>
       <c r="G80">
@@ -3234,7 +3226,7 @@
       <c r="I80" t="s">
         <v>21</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J80" s="13">
         <v>57</v>
       </c>
     </row>
@@ -3242,10 +3234,10 @@
       <c r="A81">
         <v>1021</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="6">
         <v>44735.798818634263</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="6">
         <v>44735.798818634263</v>
       </c>
       <c r="G81">
@@ -3257,7 +3249,7 @@
       <c r="I81" t="s">
         <v>23</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J81" s="13">
         <v>77</v>
       </c>
     </row>
@@ -3265,10 +3257,10 @@
       <c r="A82">
         <v>1021</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="6">
         <v>44735.798255347225</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="6">
         <v>44735.798255347225</v>
       </c>
       <c r="G82">
@@ -3280,7 +3272,7 @@
       <c r="I82" t="s">
         <v>25</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J82" s="13">
         <v>24</v>
       </c>
     </row>
@@ -3288,10 +3280,10 @@
       <c r="A83">
         <v>1022</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="6">
         <v>44735.6198540162</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="6">
         <v>44735.6198540162</v>
       </c>
       <c r="G83">
@@ -3303,7 +3295,7 @@
       <c r="I83" t="s">
         <v>15</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J83" s="13">
         <v>80</v>
       </c>
     </row>
@@ -3311,10 +3303,10 @@
       <c r="A84">
         <v>1022</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="6">
         <v>44735.619945810184</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="6">
         <v>44735.619945810184</v>
       </c>
       <c r="G84">
@@ -3326,7 +3318,7 @@
       <c r="I84" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J84" s="13">
         <v>87</v>
       </c>
     </row>
@@ -3334,10 +3326,10 @@
       <c r="A85">
         <v>1022</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="6">
         <v>44735.619166215278</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="6">
         <v>44735.619166215278</v>
       </c>
       <c r="G85">
@@ -3349,7 +3341,7 @@
       <c r="I85" t="s">
         <v>19</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J85" s="13">
         <v>91</v>
       </c>
     </row>
@@ -3357,10 +3349,10 @@
       <c r="A86">
         <v>1022</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="6">
         <v>44735.619682662036</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="6">
         <v>44735.619682662036</v>
       </c>
       <c r="G86">
@@ -3372,7 +3364,7 @@
       <c r="I86" t="s">
         <v>21</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J86" s="13">
         <v>36</v>
       </c>
     </row>
@@ -3380,10 +3372,10 @@
       <c r="A87">
         <v>1022</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="6">
         <v>44735.619552291668</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="6">
         <v>44735.619552291668</v>
       </c>
       <c r="G87">
@@ -3395,7 +3387,7 @@
       <c r="I87" t="s">
         <v>23</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J87" s="13">
         <v>59</v>
       </c>
     </row>
@@ -3403,10 +3395,10 @@
       <c r="A88">
         <v>1022</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="6">
         <v>44735.619315358796</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="6">
         <v>44735.619315358796</v>
       </c>
       <c r="G88">
@@ -3418,7 +3410,7 @@
       <c r="I88" t="s">
         <v>25</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J88" s="13">
         <v>62</v>
       </c>
     </row>
@@ -3426,10 +3418,10 @@
       <c r="A89">
         <v>1023</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="6">
         <v>44735.660299895833</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="6">
         <v>44735.660299895833</v>
       </c>
       <c r="G89">
@@ -3441,7 +3433,7 @@
       <c r="I89" t="s">
         <v>15</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J89" s="13">
         <v>40</v>
       </c>
     </row>
@@ -3449,10 +3441,10 @@
       <c r="A90">
         <v>1023</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="6">
         <v>44735.660634050924</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="6">
         <v>44735.660634050924</v>
       </c>
       <c r="G90">
@@ -3464,7 +3456,7 @@
       <c r="I90" t="s">
         <v>17</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J90" s="13">
         <v>36</v>
       </c>
     </row>
@@ -3472,10 +3464,10 @@
       <c r="A91">
         <v>1023</v>
       </c>
-      <c r="E91" s="10">
+      <c r="E91" s="6">
         <v>44735.660764074077</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="6">
         <v>44735.660764074077</v>
       </c>
       <c r="G91">
@@ -3487,7 +3479,7 @@
       <c r="I91" t="s">
         <v>19</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J91" s="13">
         <v>55</v>
       </c>
     </row>
@@ -3495,10 +3487,10 @@
       <c r="A92">
         <v>1023</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="6">
         <v>44735.660879293981</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="6">
         <v>44735.660879293981</v>
       </c>
       <c r="G92">
@@ -3510,7 +3502,7 @@
       <c r="I92" t="s">
         <v>21</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J92" s="13">
         <v>12</v>
       </c>
     </row>
@@ -3518,10 +3510,10 @@
       <c r="A93">
         <v>1023</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="6">
         <v>44735.660540983794</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="6">
         <v>44735.660540983794</v>
       </c>
       <c r="G93">
@@ -3533,7 +3525,7 @@
       <c r="I93" t="s">
         <v>23</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J93" s="13">
         <v>36</v>
       </c>
     </row>
@@ -3541,10 +3533,10 @@
       <c r="A94">
         <v>1023</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="6">
         <v>44735.660976770836</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="6">
         <v>44735.660976770836</v>
       </c>
       <c r="G94">
@@ -3556,7 +3548,7 @@
       <c r="I94" t="s">
         <v>25</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J94" s="13">
         <v>15</v>
       </c>
     </row>
@@ -3564,10 +3556,10 @@
       <c r="A95">
         <v>1024</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="6">
         <v>44736.670412546293</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="6">
         <v>44736.670412546293</v>
       </c>
       <c r="G95">
@@ -3579,7 +3571,7 @@
       <c r="I95" t="s">
         <v>15</v>
       </c>
-      <c r="J95" s="17">
+      <c r="J95" s="13">
         <v>5</v>
       </c>
     </row>
@@ -3587,10 +3579,10 @@
       <c r="A96">
         <v>1024</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="6">
         <v>44736.670717106485</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="6">
         <v>44736.670717106485</v>
       </c>
       <c r="G96">
@@ -3602,7 +3594,7 @@
       <c r="I96" t="s">
         <v>17</v>
       </c>
-      <c r="J96" s="17">
+      <c r="J96" s="13">
         <v>97</v>
       </c>
     </row>
@@ -3610,10 +3602,10 @@
       <c r="A97">
         <v>1024</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="6">
         <v>44736.670319490739</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="6">
         <v>44736.670319490739</v>
       </c>
       <c r="G97">
@@ -3625,7 +3617,7 @@
       <c r="I97" t="s">
         <v>19</v>
       </c>
-      <c r="J97" s="17">
+      <c r="J97" s="13">
         <v>71</v>
       </c>
     </row>
@@ -3633,10 +3625,10 @@
       <c r="A98">
         <v>1024</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="6">
         <v>44736.670842291664</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="6">
         <v>44736.670842291664</v>
       </c>
       <c r="G98">
@@ -3648,7 +3640,7 @@
       <c r="I98" t="s">
         <v>21</v>
       </c>
-      <c r="J98" s="17">
+      <c r="J98" s="13">
         <v>19</v>
       </c>
     </row>
@@ -3656,10 +3648,10 @@
       <c r="A99">
         <v>1024</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="6">
         <v>44736.670089270832</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="6">
         <v>44736.670089270832</v>
       </c>
       <c r="G99">
@@ -3671,7 +3663,7 @@
       <c r="I99" t="s">
         <v>23</v>
       </c>
-      <c r="J99" s="17">
+      <c r="J99" s="13">
         <v>87</v>
       </c>
     </row>
@@ -3679,10 +3671,10 @@
       <c r="A100">
         <v>1024</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="6">
         <v>44736.670555659723</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="6">
         <v>44736.670555659723</v>
       </c>
       <c r="G100">
@@ -3694,7 +3686,7 @@
       <c r="I100" t="s">
         <v>25</v>
       </c>
-      <c r="J100" s="17">
+      <c r="J100" s="13">
         <v>48</v>
       </c>
     </row>
@@ -3702,10 +3694,10 @@
       <c r="A101">
         <v>1025</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="6">
         <v>44734.621739178241</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="6">
         <v>44734.621739178241</v>
       </c>
       <c r="G101">
@@ -3717,7 +3709,7 @@
       <c r="I101" t="s">
         <v>15</v>
       </c>
-      <c r="J101" s="17">
+      <c r="J101" s="13">
         <v>14</v>
       </c>
     </row>
@@ -3725,10 +3717,10 @@
       <c r="A102">
         <v>1025</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="6">
         <v>44734.621180347225</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="6">
         <v>44734.621180347225</v>
       </c>
       <c r="G102">
@@ -3740,7 +3732,7 @@
       <c r="I102" t="s">
         <v>17</v>
       </c>
-      <c r="J102" s="17">
+      <c r="J102" s="13">
         <v>54</v>
       </c>
     </row>
@@ -3748,10 +3740,10 @@
       <c r="A103">
         <v>1025</v>
       </c>
-      <c r="E103" s="10">
+      <c r="E103" s="6">
         <v>44734.6215375463</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="6">
         <v>44734.6215375463</v>
       </c>
       <c r="G103">
@@ -3763,7 +3755,7 @@
       <c r="I103" t="s">
         <v>19</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J103" s="13">
         <v>58</v>
       </c>
     </row>
@@ -3771,10 +3763,10 @@
       <c r="A104">
         <v>1025</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="6">
         <v>44734.62094267361</v>
       </c>
-      <c r="F104" s="10">
+      <c r="F104" s="6">
         <v>44734.62094267361</v>
       </c>
       <c r="G104">
@@ -3786,7 +3778,7 @@
       <c r="I104" t="s">
         <v>21</v>
       </c>
-      <c r="J104" s="17">
+      <c r="J104" s="13">
         <v>9</v>
       </c>
     </row>
@@ -3794,10 +3786,10 @@
       <c r="A105">
         <v>1025</v>
       </c>
-      <c r="E105" s="10">
+      <c r="E105" s="6">
         <v>44734.621838437502</v>
       </c>
-      <c r="F105" s="10">
+      <c r="F105" s="6">
         <v>44734.621838437502</v>
       </c>
       <c r="G105">
@@ -3809,7 +3801,7 @@
       <c r="I105" t="s">
         <v>23</v>
       </c>
-      <c r="J105" s="17">
+      <c r="J105" s="13">
         <v>15</v>
       </c>
     </row>
@@ -3817,10 +3809,10 @@
       <c r="A106">
         <v>1025</v>
       </c>
-      <c r="E106" s="10">
+      <c r="E106" s="6">
         <v>44734.621276018515</v>
       </c>
-      <c r="F106" s="10">
+      <c r="F106" s="6">
         <v>44734.621276018515</v>
       </c>
       <c r="G106">
@@ -3832,7 +3824,7 @@
       <c r="I106" t="s">
         <v>25</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J106" s="13">
         <v>64</v>
       </c>
     </row>
@@ -3840,10 +3832,10 @@
       <c r="A107">
         <v>1026</v>
       </c>
-      <c r="E107" s="10">
+      <c r="E107" s="6">
         <v>44734.7857721412</v>
       </c>
-      <c r="F107" s="10">
+      <c r="F107" s="6">
         <v>44734.7857721412</v>
       </c>
       <c r="G107">
@@ -3855,7 +3847,7 @@
       <c r="I107" t="s">
         <v>15</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J107" s="13">
         <v>35</v>
       </c>
     </row>
@@ -3863,10 +3855,10 @@
       <c r="A108">
         <v>1026</v>
       </c>
-      <c r="E108" s="10">
+      <c r="E108" s="6">
         <v>44734.786140115742</v>
       </c>
-      <c r="F108" s="10">
+      <c r="F108" s="6">
         <v>44734.786140115742</v>
       </c>
       <c r="G108">
@@ -3878,7 +3870,7 @@
       <c r="I108" t="s">
         <v>17</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J108" s="13">
         <v>60</v>
       </c>
     </row>
@@ -3886,10 +3878,10 @@
       <c r="A109">
         <v>1026</v>
       </c>
-      <c r="E109" s="10">
+      <c r="E109" s="6">
         <v>44734.785917847221</v>
       </c>
-      <c r="F109" s="10">
+      <c r="F109" s="6">
         <v>44734.785917847221</v>
       </c>
       <c r="G109">
@@ -3901,7 +3893,7 @@
       <c r="I109" t="s">
         <v>19</v>
       </c>
-      <c r="J109" s="17">
+      <c r="J109" s="13">
         <v>74</v>
       </c>
     </row>
@@ -3909,10 +3901,10 @@
       <c r="A110">
         <v>1026</v>
       </c>
-      <c r="E110" s="10">
+      <c r="E110" s="6">
         <v>44734.786344456021</v>
       </c>
-      <c r="F110" s="10">
+      <c r="F110" s="6">
         <v>44734.786344456021</v>
       </c>
       <c r="G110">
@@ -3924,7 +3916,7 @@
       <c r="I110" t="s">
         <v>21</v>
       </c>
-      <c r="J110" s="17">
+      <c r="J110" s="13">
         <v>41</v>
       </c>
     </row>
@@ -3932,10 +3924,10 @@
       <c r="A111">
         <v>1026</v>
       </c>
-      <c r="E111" s="10">
+      <c r="E111" s="6">
         <v>44734.785501817132</v>
       </c>
-      <c r="F111" s="10">
+      <c r="F111" s="6">
         <v>44734.785501817132</v>
       </c>
       <c r="G111">
@@ -3947,7 +3939,7 @@
       <c r="I111" t="s">
         <v>23</v>
       </c>
-      <c r="J111" s="17">
+      <c r="J111" s="13">
         <v>67</v>
       </c>
     </row>
@@ -3955,10 +3947,10 @@
       <c r="A112">
         <v>1026</v>
       </c>
-      <c r="E112" s="10">
+      <c r="E112" s="6">
         <v>44734.786055289354</v>
       </c>
-      <c r="F112" s="10">
+      <c r="F112" s="6">
         <v>44734.786055289354</v>
       </c>
       <c r="G112">
@@ -3970,7 +3962,7 @@
       <c r="I112" t="s">
         <v>25</v>
       </c>
-      <c r="J112" s="17">
+      <c r="J112" s="13">
         <v>78</v>
       </c>
     </row>
@@ -3978,10 +3970,10 @@
       <c r="A113">
         <v>1027</v>
       </c>
-      <c r="E113" s="10">
+      <c r="E113" s="6">
         <v>44736.795284282409</v>
       </c>
-      <c r="F113" s="10">
+      <c r="F113" s="6">
         <v>44736.795284282409</v>
       </c>
       <c r="G113">
@@ -3993,7 +3985,7 @@
       <c r="I113" t="s">
         <v>15</v>
       </c>
-      <c r="J113" s="17">
+      <c r="J113" s="13">
         <v>30</v>
       </c>
     </row>
@@ -4001,10 +3993,10 @@
       <c r="A114">
         <v>1027</v>
       </c>
-      <c r="E114" s="10">
+      <c r="E114" s="6">
         <v>44736.79449403935</v>
       </c>
-      <c r="F114" s="10">
+      <c r="F114" s="6">
         <v>44736.79449403935</v>
       </c>
       <c r="G114">
@@ -4016,7 +4008,7 @@
       <c r="I114" t="s">
         <v>17</v>
       </c>
-      <c r="J114" s="17">
+      <c r="J114" s="13">
         <v>40</v>
       </c>
     </row>
@@ -4024,10 +4016,10 @@
       <c r="A115">
         <v>1027</v>
       </c>
-      <c r="E115" s="10">
+      <c r="E115" s="6">
         <v>44736.794752453701</v>
       </c>
-      <c r="F115" s="10">
+      <c r="F115" s="6">
         <v>44736.794752453701</v>
       </c>
       <c r="G115">
@@ -4039,7 +4031,7 @@
       <c r="I115" t="s">
         <v>19</v>
       </c>
-      <c r="J115" s="17">
+      <c r="J115" s="13">
         <v>75</v>
       </c>
     </row>
@@ -4047,10 +4039,10 @@
       <c r="A116">
         <v>1027</v>
       </c>
-      <c r="E116" s="10">
+      <c r="E116" s="6">
         <v>44736.794862407405</v>
       </c>
-      <c r="F116" s="10">
+      <c r="F116" s="6">
         <v>44736.794862407405</v>
       </c>
       <c r="G116">
@@ -4062,7 +4054,7 @@
       <c r="I116" t="s">
         <v>21</v>
       </c>
-      <c r="J116" s="17">
+      <c r="J116" s="13">
         <v>10</v>
       </c>
     </row>
@@ -4070,10 +4062,10 @@
       <c r="A117">
         <v>1027</v>
       </c>
-      <c r="E117" s="10">
+      <c r="E117" s="6">
         <v>44736.794988287038</v>
       </c>
-      <c r="F117" s="10">
+      <c r="F117" s="6">
         <v>44736.794988287038</v>
       </c>
       <c r="G117">
@@ -4085,7 +4077,7 @@
       <c r="I117" t="s">
         <v>23</v>
       </c>
-      <c r="J117" s="17">
+      <c r="J117" s="13">
         <v>45</v>
       </c>
     </row>
@@ -4093,10 +4085,10 @@
       <c r="A118">
         <v>1027</v>
       </c>
-      <c r="E118" s="10">
+      <c r="E118" s="6">
         <v>44736.795156064814</v>
       </c>
-      <c r="F118" s="10">
+      <c r="F118" s="6">
         <v>44736.795156064814</v>
       </c>
       <c r="G118">
@@ -4108,7 +4100,7 @@
       <c r="I118" t="s">
         <v>25</v>
       </c>
-      <c r="J118" s="17">
+      <c r="J118" s="13">
         <v>50</v>
       </c>
     </row>
@@ -4116,10 +4108,10 @@
       <c r="A119">
         <v>1028</v>
       </c>
-      <c r="E119" s="10">
+      <c r="E119" s="6">
         <v>44735.659314131946</v>
       </c>
-      <c r="F119" s="10">
+      <c r="F119" s="6">
         <v>44735.659314131946</v>
       </c>
       <c r="G119">
@@ -4131,7 +4123,7 @@
       <c r="I119" t="s">
         <v>15</v>
       </c>
-      <c r="J119" s="17">
+      <c r="J119" s="13">
         <v>42</v>
       </c>
     </row>
@@ -4139,10 +4131,10 @@
       <c r="A120">
         <v>1028</v>
       </c>
-      <c r="E120" s="10">
+      <c r="E120" s="6">
         <v>44735.659732060187</v>
       </c>
-      <c r="F120" s="10">
+      <c r="F120" s="6">
         <v>44735.659732060187</v>
       </c>
       <c r="G120">
@@ -4154,7 +4146,7 @@
       <c r="I120" t="s">
         <v>17</v>
       </c>
-      <c r="J120" s="17">
+      <c r="J120" s="13">
         <v>69</v>
       </c>
     </row>
@@ -4162,10 +4154,10 @@
       <c r="A121">
         <v>1028</v>
       </c>
-      <c r="E121" s="10">
+      <c r="E121" s="6">
         <v>44735.659674907409</v>
       </c>
-      <c r="F121" s="10">
+      <c r="F121" s="6">
         <v>44735.659674907409</v>
       </c>
       <c r="G121">
@@ -4177,7 +4169,7 @@
       <c r="I121" t="s">
         <v>19</v>
       </c>
-      <c r="J121" s="17">
+      <c r="J121" s="13">
         <v>90</v>
       </c>
     </row>
@@ -4185,10 +4177,10 @@
       <c r="A122">
         <v>1028</v>
       </c>
-      <c r="E122" s="10">
+      <c r="E122" s="6">
         <v>44735.659592615739</v>
       </c>
-      <c r="F122" s="10">
+      <c r="F122" s="6">
         <v>44735.659592615739</v>
       </c>
       <c r="G122">
@@ -4200,7 +4192,7 @@
       <c r="I122" t="s">
         <v>21</v>
       </c>
-      <c r="J122" s="17">
+      <c r="J122" s="13">
         <v>81</v>
       </c>
     </row>
@@ -4208,10 +4200,10 @@
       <c r="A123">
         <v>1028</v>
       </c>
-      <c r="E123" s="10">
+      <c r="E123" s="6">
         <v>44735.659524085648</v>
       </c>
-      <c r="F123" s="10">
+      <c r="F123" s="6">
         <v>44735.659524085648</v>
       </c>
       <c r="G123">
@@ -4223,7 +4215,7 @@
       <c r="I123" t="s">
         <v>23</v>
       </c>
-      <c r="J123" s="17">
+      <c r="J123" s="13">
         <v>70</v>
       </c>
     </row>
@@ -4231,10 +4223,10 @@
       <c r="A124">
         <v>1028</v>
       </c>
-      <c r="E124" s="10">
+      <c r="E124" s="6">
         <v>44735.659438182869</v>
       </c>
-      <c r="F124" s="10">
+      <c r="F124" s="6">
         <v>44735.659438182869</v>
       </c>
       <c r="G124">
@@ -4246,7 +4238,7 @@
       <c r="I124" t="s">
         <v>25</v>
       </c>
-      <c r="J124" s="17">
+      <c r="J124" s="13">
         <v>79</v>
       </c>
     </row>
@@ -4254,10 +4246,10 @@
       <c r="A125">
         <v>1031</v>
       </c>
-      <c r="E125" s="10">
+      <c r="E125" s="6">
         <v>44734.686553946762</v>
       </c>
-      <c r="F125" s="10">
+      <c r="F125" s="6">
         <v>44734.686553946762</v>
       </c>
       <c r="G125">
@@ -4269,7 +4261,7 @@
       <c r="I125" t="s">
         <v>15</v>
       </c>
-      <c r="J125" s="17">
+      <c r="J125" s="13">
         <v>35</v>
       </c>
     </row>
@@ -4277,10 +4269,10 @@
       <c r="A126">
         <v>1031</v>
       </c>
-      <c r="E126" s="10">
+      <c r="E126" s="6">
         <v>44734.68752230324</v>
       </c>
-      <c r="F126" s="10">
+      <c r="F126" s="6">
         <v>44734.68752230324</v>
       </c>
       <c r="G126">
@@ -4292,7 +4284,7 @@
       <c r="I126" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="17">
+      <c r="J126" s="13">
         <v>49</v>
       </c>
     </row>
@@ -4300,10 +4292,10 @@
       <c r="A127">
         <v>1031</v>
       </c>
-      <c r="E127" s="10">
+      <c r="E127" s="6">
         <v>44734.687689236111</v>
       </c>
-      <c r="F127" s="10">
+      <c r="F127" s="6">
         <v>44734.687689236111</v>
       </c>
       <c r="G127">
@@ -4315,7 +4307,7 @@
       <c r="I127" t="s">
         <v>19</v>
       </c>
-      <c r="J127" s="17">
+      <c r="J127" s="13">
         <v>74</v>
       </c>
     </row>
@@ -4323,10 +4315,10 @@
       <c r="A128">
         <v>1031</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="6">
         <v>44734.687231157404</v>
       </c>
-      <c r="F128" s="10">
+      <c r="F128" s="6">
         <v>44734.687231157404</v>
       </c>
       <c r="G128">
@@ -4338,7 +4330,7 @@
       <c r="I128" t="s">
         <v>21</v>
       </c>
-      <c r="J128" s="17">
+      <c r="J128" s="13">
         <v>7</v>
       </c>
     </row>
@@ -4346,10 +4338,10 @@
       <c r="A129">
         <v>1031</v>
       </c>
-      <c r="E129" s="10">
+      <c r="E129" s="6">
         <v>44734.687912719906</v>
       </c>
-      <c r="F129" s="10">
+      <c r="F129" s="6">
         <v>44734.687912719906</v>
       </c>
       <c r="G129">
@@ -4361,7 +4353,7 @@
       <c r="I129" t="s">
         <v>23</v>
       </c>
-      <c r="J129" s="17">
+      <c r="J129" s="13">
         <v>84</v>
       </c>
     </row>
@@ -4369,10 +4361,10 @@
       <c r="A130">
         <v>1031</v>
       </c>
-      <c r="E130" s="10">
+      <c r="E130" s="6">
         <v>44734.687023495368</v>
       </c>
-      <c r="F130" s="10">
+      <c r="F130" s="6">
         <v>44734.687023495368</v>
       </c>
       <c r="G130">
@@ -4384,7 +4376,7 @@
       <c r="I130" t="s">
         <v>25</v>
       </c>
-      <c r="J130" s="17">
+      <c r="J130" s="13">
         <v>18</v>
       </c>
     </row>
@@ -4392,10 +4384,10 @@
       <c r="A131">
         <v>1032</v>
       </c>
-      <c r="E131" s="10">
+      <c r="E131" s="6">
         <v>44734.613674016204</v>
       </c>
-      <c r="F131" s="10">
+      <c r="F131" s="6">
         <v>44734.613674016204</v>
       </c>
       <c r="G131">
@@ -4407,7 +4399,7 @@
       <c r="I131" t="s">
         <v>15</v>
       </c>
-      <c r="J131" s="17">
+      <c r="J131" s="13">
         <v>83</v>
       </c>
     </row>
@@ -4415,10 +4407,10 @@
       <c r="A132">
         <v>1032</v>
       </c>
-      <c r="E132" s="10">
+      <c r="E132" s="6">
         <v>44734.613498310187</v>
       </c>
-      <c r="F132" s="10">
+      <c r="F132" s="6">
         <v>44734.613498310187</v>
       </c>
       <c r="G132">
@@ -4430,7 +4422,7 @@
       <c r="I132" t="s">
         <v>17</v>
       </c>
-      <c r="J132" s="17">
+      <c r="J132" s="13">
         <v>87</v>
       </c>
     </row>
@@ -4438,10 +4430,10 @@
       <c r="A133">
         <v>1032</v>
       </c>
-      <c r="E133" s="10">
+      <c r="E133" s="6">
         <v>44734.614035706021</v>
       </c>
-      <c r="F133" s="10">
+      <c r="F133" s="6">
         <v>44734.614035706021</v>
       </c>
       <c r="G133">
@@ -4453,7 +4445,7 @@
       <c r="I133" t="s">
         <v>19</v>
       </c>
-      <c r="J133" s="17">
+      <c r="J133" s="13">
         <v>48</v>
       </c>
     </row>
@@ -4461,10 +4453,10 @@
       <c r="A134">
         <v>1032</v>
       </c>
-      <c r="E134" s="10">
+      <c r="E134" s="6">
         <v>44734.61397046296</v>
       </c>
-      <c r="F134" s="10">
+      <c r="F134" s="6">
         <v>44734.61397046296</v>
       </c>
       <c r="G134">
@@ -4476,7 +4468,7 @@
       <c r="I134" t="s">
         <v>21</v>
       </c>
-      <c r="J134" s="17">
+      <c r="J134" s="13">
         <v>57</v>
       </c>
     </row>
@@ -4484,10 +4476,10 @@
       <c r="A135">
         <v>1032</v>
       </c>
-      <c r="E135" s="10">
+      <c r="E135" s="6">
         <v>44734.613891712965</v>
       </c>
-      <c r="F135" s="10">
+      <c r="F135" s="6">
         <v>44734.613891712965</v>
       </c>
       <c r="G135">
@@ -4499,7 +4491,7 @@
       <c r="I135" t="s">
         <v>23</v>
       </c>
-      <c r="J135" s="17">
+      <c r="J135" s="13">
         <v>87</v>
       </c>
     </row>
@@ -4507,10 +4499,10 @@
       <c r="A136">
         <v>1032</v>
       </c>
-      <c r="E136" s="10">
+      <c r="E136" s="6">
         <v>44734.613328692132</v>
       </c>
-      <c r="F136" s="10">
+      <c r="F136" s="6">
         <v>44734.613328692132</v>
       </c>
       <c r="G136">
@@ -4522,7 +4514,7 @@
       <c r="I136" t="s">
         <v>25</v>
       </c>
-      <c r="J136" s="17">
+      <c r="J136" s="13">
         <v>84</v>
       </c>
     </row>
@@ -4530,10 +4522,10 @@
       <c r="A137">
         <v>1033</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="6">
         <v>44734.613845162035</v>
       </c>
-      <c r="F137" s="10">
+      <c r="F137" s="6">
         <v>44734.613845162035</v>
       </c>
       <c r="G137">
@@ -4545,7 +4537,7 @@
       <c r="I137" t="s">
         <v>15</v>
       </c>
-      <c r="J137" s="17">
+      <c r="J137" s="13">
         <v>69</v>
       </c>
     </row>
@@ -4553,10 +4545,10 @@
       <c r="A138">
         <v>1033</v>
       </c>
-      <c r="E138" s="10">
+      <c r="E138" s="6">
         <v>44734.613388020836</v>
       </c>
-      <c r="F138" s="10">
+      <c r="F138" s="6">
         <v>44734.613388020836</v>
       </c>
       <c r="G138">
@@ -4568,7 +4560,7 @@
       <c r="I138" t="s">
         <v>17</v>
       </c>
-      <c r="J138" s="17">
+      <c r="J138" s="13">
         <v>71</v>
       </c>
     </row>
@@ -4576,10 +4568,10 @@
       <c r="A139">
         <v>1033</v>
       </c>
-      <c r="E139" s="10">
+      <c r="E139" s="6">
         <v>44734.613762152774</v>
       </c>
-      <c r="F139" s="10">
+      <c r="F139" s="6">
         <v>44734.613762152774</v>
       </c>
       <c r="G139">
@@ -4591,7 +4583,7 @@
       <c r="I139" t="s">
         <v>19</v>
       </c>
-      <c r="J139" s="17">
+      <c r="J139" s="13">
         <v>94</v>
       </c>
     </row>
@@ -4599,10 +4591,10 @@
       <c r="A140">
         <v>1033</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="6">
         <v>44734.613964525466</v>
       </c>
-      <c r="F140" s="10">
+      <c r="F140" s="6">
         <v>44734.613964525466</v>
       </c>
       <c r="G140">
@@ -4614,7 +4606,7 @@
       <c r="I140" t="s">
         <v>21</v>
       </c>
-      <c r="J140" s="17">
+      <c r="J140" s="13">
         <v>29</v>
       </c>
     </row>
@@ -4622,10 +4614,10 @@
       <c r="A141">
         <v>1033</v>
       </c>
-      <c r="E141" s="10">
+      <c r="E141" s="6">
         <v>44734.613470636577</v>
       </c>
-      <c r="F141" s="10">
+      <c r="F141" s="6">
         <v>44734.613470636577</v>
       </c>
       <c r="G141">
@@ -4637,7 +4629,7 @@
       <c r="I141" t="s">
         <v>23</v>
       </c>
-      <c r="J141" s="17">
+      <c r="J141" s="13">
         <v>84</v>
       </c>
     </row>
@@ -4645,10 +4637,10 @@
       <c r="A142">
         <v>1033</v>
       </c>
-      <c r="E142" s="10">
+      <c r="E142" s="6">
         <v>44734.61362744213</v>
       </c>
-      <c r="F142" s="10">
+      <c r="F142" s="6">
         <v>44734.61362744213</v>
       </c>
       <c r="G142">
@@ -4660,7 +4652,7 @@
       <c r="I142" t="s">
         <v>25</v>
       </c>
-      <c r="J142" s="17">
+      <c r="J142" s="13">
         <v>22</v>
       </c>
     </row>
@@ -4668,10 +4660,10 @@
       <c r="A143">
         <v>1034</v>
       </c>
-      <c r="E143" s="10">
+      <c r="E143" s="6">
         <v>44735.794772430556</v>
       </c>
-      <c r="F143" s="10">
+      <c r="F143" s="6">
         <v>44735.794772430556</v>
       </c>
       <c r="G143">
@@ -4683,7 +4675,7 @@
       <c r="I143" t="s">
         <v>15</v>
       </c>
-      <c r="J143" s="17">
+      <c r="J143" s="13">
         <v>37</v>
       </c>
     </row>
@@ -4691,10 +4683,10 @@
       <c r="A144">
         <v>1034</v>
       </c>
-      <c r="E144" s="10">
+      <c r="E144" s="6">
         <v>44735.794930856478</v>
       </c>
-      <c r="F144" s="10">
+      <c r="F144" s="6">
         <v>44735.794930856478</v>
       </c>
       <c r="G144">
@@ -4706,7 +4698,7 @@
       <c r="I144" t="s">
         <v>17</v>
       </c>
-      <c r="J144" s="17">
+      <c r="J144" s="13">
         <v>50</v>
       </c>
     </row>
@@ -4714,10 +4706,10 @@
       <c r="A145">
         <v>1034</v>
       </c>
-      <c r="E145" s="10">
+      <c r="E145" s="6">
         <v>44735.794303738425</v>
       </c>
-      <c r="F145" s="10">
+      <c r="F145" s="6">
         <v>44735.794303738425</v>
       </c>
       <c r="G145">
@@ -4729,7 +4721,7 @@
       <c r="I145" t="s">
         <v>19</v>
       </c>
-      <c r="J145" s="17">
+      <c r="J145" s="13">
         <v>75</v>
       </c>
     </row>
@@ -4737,10 +4729,10 @@
       <c r="A146">
         <v>1034</v>
       </c>
-      <c r="E146" s="10">
+      <c r="E146" s="6">
         <v>44735.794417592595</v>
       </c>
-      <c r="F146" s="10">
+      <c r="F146" s="6">
         <v>44735.794417592595</v>
       </c>
       <c r="G146">
@@ -4752,7 +4744,7 @@
       <c r="I146" t="s">
         <v>21</v>
       </c>
-      <c r="J146" s="17">
+      <c r="J146" s="13">
         <v>29</v>
       </c>
     </row>
@@ -4760,10 +4752,10 @@
       <c r="A147">
         <v>1034</v>
       </c>
-      <c r="E147" s="10">
+      <c r="E147" s="6">
         <v>44735.794595740743</v>
       </c>
-      <c r="F147" s="10">
+      <c r="F147" s="6">
         <v>44735.794595740743</v>
       </c>
       <c r="G147">
@@ -4775,7 +4767,7 @@
       <c r="I147" t="s">
         <v>23</v>
       </c>
-      <c r="J147" s="17">
+      <c r="J147" s="13">
         <v>54</v>
       </c>
     </row>
@@ -4783,10 +4775,10 @@
       <c r="A148">
         <v>1034</v>
       </c>
-      <c r="E148" s="10">
+      <c r="E148" s="6">
         <v>44735.795015104166</v>
       </c>
-      <c r="F148" s="10">
+      <c r="F148" s="6">
         <v>44735.795015104166</v>
       </c>
       <c r="G148">
@@ -4798,7 +4790,7 @@
       <c r="I148" t="s">
         <v>25</v>
       </c>
-      <c r="J148" s="17">
+      <c r="J148" s="13">
         <v>68</v>
       </c>
     </row>
@@ -4806,10 +4798,10 @@
       <c r="A149">
         <v>1035</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="6">
         <v>44735.791927881946</v>
       </c>
-      <c r="F149" s="10">
+      <c r="F149" s="6">
         <v>44735.791927881946</v>
       </c>
       <c r="G149">
@@ -4821,7 +4813,7 @@
       <c r="I149" t="s">
         <v>15</v>
       </c>
-      <c r="J149" s="17">
+      <c r="J149" s="13">
         <v>3</v>
       </c>
     </row>
@@ -4829,10 +4821,10 @@
       <c r="A150">
         <v>1035</v>
       </c>
-      <c r="E150" s="10">
+      <c r="E150" s="6">
         <v>44735.792829039354</v>
       </c>
-      <c r="F150" s="10">
+      <c r="F150" s="6">
         <v>44735.792829039354</v>
       </c>
       <c r="G150">
@@ -4844,7 +4836,7 @@
       <c r="I150" t="s">
         <v>17</v>
       </c>
-      <c r="J150" s="17">
+      <c r="J150" s="13">
         <v>24</v>
       </c>
     </row>
@@ -4852,10 +4844,10 @@
       <c r="A151">
         <v>1035</v>
       </c>
-      <c r="E151" s="10">
+      <c r="E151" s="6">
         <v>44735.792137673612</v>
       </c>
-      <c r="F151" s="10">
+      <c r="F151" s="6">
         <v>44735.792137673612</v>
       </c>
       <c r="G151">
@@ -4867,7 +4859,7 @@
       <c r="I151" t="s">
         <v>19</v>
       </c>
-      <c r="J151" s="17">
+      <c r="J151" s="13">
         <v>33</v>
       </c>
     </row>
@@ -4875,10 +4867,10 @@
       <c r="A152">
         <v>1035</v>
       </c>
-      <c r="E152" s="10">
+      <c r="E152" s="6">
         <v>44735.791833761577</v>
       </c>
-      <c r="F152" s="10">
+      <c r="F152" s="6">
         <v>44735.791833761577</v>
       </c>
       <c r="G152">
@@ -4890,7 +4882,7 @@
       <c r="I152" t="s">
         <v>21</v>
       </c>
-      <c r="J152" s="17">
+      <c r="J152" s="13">
         <v>4</v>
       </c>
     </row>
@@ -4898,10 +4890,10 @@
       <c r="A153">
         <v>1035</v>
       </c>
-      <c r="E153" s="10">
+      <c r="E153" s="6">
         <v>44735.792637511571</v>
       </c>
-      <c r="F153" s="10">
+      <c r="F153" s="6">
         <v>44735.792637511571</v>
       </c>
       <c r="G153">
@@ -4913,7 +4905,7 @@
       <c r="I153" t="s">
         <v>23</v>
       </c>
-      <c r="J153" s="17">
+      <c r="J153" s="13">
         <v>20</v>
       </c>
     </row>
@@ -4921,10 +4913,10 @@
       <c r="A154">
         <v>1035</v>
       </c>
-      <c r="E154" s="10">
+      <c r="E154" s="6">
         <v>44735.792303819442</v>
       </c>
-      <c r="F154" s="10">
+      <c r="F154" s="6">
         <v>44735.792303819442</v>
       </c>
       <c r="G154">
@@ -4936,7 +4928,7 @@
       <c r="I154" t="s">
         <v>25</v>
       </c>
-      <c r="J154" s="17">
+      <c r="J154" s="13">
         <v>8</v>
       </c>
     </row>
@@ -4944,10 +4936,10 @@
       <c r="A155">
         <v>1036</v>
       </c>
-      <c r="E155" s="10">
+      <c r="E155" s="6">
         <v>44735.623212245373</v>
       </c>
-      <c r="F155" s="10">
+      <c r="F155" s="6">
         <v>44735.623212245373</v>
       </c>
       <c r="G155">
@@ -4959,7 +4951,7 @@
       <c r="I155" t="s">
         <v>15</v>
       </c>
-      <c r="J155" s="17">
+      <c r="J155" s="13">
         <v>15</v>
       </c>
     </row>
@@ -4967,10 +4959,10 @@
       <c r="A156">
         <v>1036</v>
       </c>
-      <c r="E156" s="10">
+      <c r="E156" s="6">
         <v>44735.622797569442</v>
       </c>
-      <c r="F156" s="10">
+      <c r="F156" s="6">
         <v>44735.622797569442</v>
       </c>
       <c r="G156">
@@ -4982,7 +4974,7 @@
       <c r="I156" t="s">
         <v>17</v>
       </c>
-      <c r="J156" s="17">
+      <c r="J156" s="13">
         <v>85</v>
       </c>
     </row>
@@ -4990,10 +4982,10 @@
       <c r="A157">
         <v>1036</v>
       </c>
-      <c r="E157" s="10">
+      <c r="E157" s="6">
         <v>44735.622691226854</v>
       </c>
-      <c r="F157" s="10">
+      <c r="F157" s="6">
         <v>44735.622691226854</v>
       </c>
       <c r="G157">
@@ -5005,7 +4997,7 @@
       <c r="I157" t="s">
         <v>19</v>
       </c>
-      <c r="J157" s="17">
+      <c r="J157" s="13">
         <v>95</v>
       </c>
     </row>
@@ -5013,10 +5005,10 @@
       <c r="A158">
         <v>1036</v>
       </c>
-      <c r="E158" s="10">
+      <c r="E158" s="6">
         <v>44735.622869733794</v>
       </c>
-      <c r="F158" s="10">
+      <c r="F158" s="6">
         <v>44735.622869733794</v>
       </c>
       <c r="G158">
@@ -5028,7 +5020,7 @@
       <c r="I158" t="s">
         <v>21</v>
       </c>
-      <c r="J158" s="17">
+      <c r="J158" s="13">
         <v>68</v>
       </c>
     </row>
@@ -5036,10 +5028,10 @@
       <c r="A159">
         <v>1036</v>
       </c>
-      <c r="E159" s="10">
+      <c r="E159" s="6">
         <v>44735.622391377314</v>
       </c>
-      <c r="F159" s="10">
+      <c r="F159" s="6">
         <v>44735.622391377314</v>
       </c>
       <c r="G159">
@@ -5051,7 +5043,7 @@
       <c r="I159" t="s">
         <v>23</v>
       </c>
-      <c r="J159" s="17">
+      <c r="J159" s="13">
         <v>71</v>
       </c>
     </row>
@@ -5059,10 +5051,10 @@
       <c r="A160">
         <v>1036</v>
       </c>
-      <c r="E160" s="10">
+      <c r="E160" s="6">
         <v>44735.623065219908</v>
       </c>
-      <c r="F160" s="10">
+      <c r="F160" s="6">
         <v>44735.623065219908</v>
       </c>
       <c r="G160">
@@ -5074,7 +5066,7 @@
       <c r="I160" t="s">
         <v>25</v>
       </c>
-      <c r="J160" s="17">
+      <c r="J160" s="13">
         <v>91</v>
       </c>
     </row>
@@ -5082,10 +5074,10 @@
       <c r="A161">
         <v>1037</v>
       </c>
-      <c r="E161" s="10">
+      <c r="E161" s="6">
         <v>44736.775639537038</v>
       </c>
-      <c r="F161" s="10">
+      <c r="F161" s="6">
         <v>44736.775639537038</v>
       </c>
       <c r="G161">
@@ -5097,7 +5089,7 @@
       <c r="I161" t="s">
         <v>15</v>
       </c>
-      <c r="J161" s="17">
+      <c r="J161" s="13">
         <v>10</v>
       </c>
     </row>
@@ -5105,10 +5097,10 @@
       <c r="A162">
         <v>1037</v>
       </c>
-      <c r="E162" s="10">
+      <c r="E162" s="6">
         <v>44736.77596835648</v>
       </c>
-      <c r="F162" s="10">
+      <c r="F162" s="6">
         <v>44736.77596835648</v>
       </c>
       <c r="G162">
@@ -5120,7 +5112,7 @@
       <c r="I162" t="s">
         <v>17</v>
       </c>
-      <c r="J162" s="17">
+      <c r="J162" s="13">
         <v>71</v>
       </c>
     </row>
@@ -5128,10 +5120,10 @@
       <c r="A163">
         <v>1037</v>
       </c>
-      <c r="E163" s="10">
+      <c r="E163" s="6">
         <v>44736.776083379627</v>
       </c>
-      <c r="F163" s="10">
+      <c r="F163" s="6">
         <v>44736.776083379627</v>
       </c>
       <c r="G163">
@@ -5143,7 +5135,7 @@
       <c r="I163" t="s">
         <v>19</v>
       </c>
-      <c r="J163" s="17">
+      <c r="J163" s="13">
         <v>80</v>
       </c>
     </row>
@@ -5151,10 +5143,10 @@
       <c r="A164">
         <v>1037</v>
       </c>
-      <c r="E164" s="10">
+      <c r="E164" s="6">
         <v>44736.775824398152</v>
       </c>
-      <c r="F164" s="10">
+      <c r="F164" s="6">
         <v>44736.775824398152</v>
       </c>
       <c r="G164">
@@ -5166,7 +5158,7 @@
       <c r="I164" t="s">
         <v>21</v>
       </c>
-      <c r="J164" s="17">
+      <c r="J164" s="13">
         <v>41</v>
       </c>
     </row>
@@ -5174,10 +5166,10 @@
       <c r="A165">
         <v>1037</v>
       </c>
-      <c r="E165" s="10">
+      <c r="E165" s="6">
         <v>44736.77640855324</v>
       </c>
-      <c r="F165" s="10">
+      <c r="F165" s="6">
         <v>44736.77640855324</v>
       </c>
       <c r="G165">
@@ -5189,7 +5181,7 @@
       <c r="I165" t="s">
         <v>23</v>
       </c>
-      <c r="J165" s="17">
+      <c r="J165" s="13">
         <v>48</v>
       </c>
     </row>
@@ -5197,10 +5189,10 @@
       <c r="A166">
         <v>1037</v>
       </c>
-      <c r="E166" s="10">
+      <c r="E166" s="6">
         <v>44736.776315613424</v>
       </c>
-      <c r="F166" s="10">
+      <c r="F166" s="6">
         <v>44736.776315613424</v>
       </c>
       <c r="G166">
@@ -5212,7 +5204,7 @@
       <c r="I166" t="s">
         <v>25</v>
       </c>
-      <c r="J166" s="17">
+      <c r="J166" s="13">
         <v>17</v>
       </c>
     </row>
@@ -5220,10 +5212,10 @@
       <c r="A167">
         <v>1039</v>
       </c>
-      <c r="E167" s="10">
+      <c r="E167" s="6">
         <v>44735.747202037041</v>
       </c>
-      <c r="F167" s="10">
+      <c r="F167" s="6">
         <v>44735.747202037041</v>
       </c>
       <c r="G167">
@@ -5235,7 +5227,7 @@
       <c r="I167" t="s">
         <v>15</v>
       </c>
-      <c r="J167" s="17">
+      <c r="J167" s="13">
         <v>20</v>
       </c>
     </row>
@@ -5243,10 +5235,10 @@
       <c r="A168">
         <v>1039</v>
       </c>
-      <c r="E168" s="10">
+      <c r="E168" s="6">
         <v>44735.747485914355</v>
       </c>
-      <c r="F168" s="10">
+      <c r="F168" s="6">
         <v>44735.747485914355</v>
       </c>
       <c r="G168">
@@ -5258,7 +5250,7 @@
       <c r="I168" t="s">
         <v>17</v>
       </c>
-      <c r="J168" s="17">
+      <c r="J168" s="13">
         <v>90</v>
       </c>
     </row>
@@ -5266,10 +5258,10 @@
       <c r="A169">
         <v>1039</v>
       </c>
-      <c r="E169" s="10">
+      <c r="E169" s="6">
         <v>44735.746997372684</v>
       </c>
-      <c r="F169" s="10">
+      <c r="F169" s="6">
         <v>44735.746997372684</v>
       </c>
       <c r="G169">
@@ -5281,7 +5273,7 @@
       <c r="I169" t="s">
         <v>19</v>
       </c>
-      <c r="J169" s="17">
+      <c r="J169" s="13">
         <v>90</v>
       </c>
     </row>
@@ -5289,10 +5281,10 @@
       <c r="A170">
         <v>1039</v>
       </c>
-      <c r="E170" s="10">
+      <c r="E170" s="6">
         <v>44735.746691805558</v>
       </c>
-      <c r="F170" s="10">
+      <c r="F170" s="6">
         <v>44735.746691805558</v>
       </c>
       <c r="G170">
@@ -5304,7 +5296,7 @@
       <c r="I170" t="s">
         <v>21</v>
       </c>
-      <c r="J170" s="17">
+      <c r="J170" s="13">
         <v>20</v>
       </c>
     </row>
@@ -5312,10 +5304,10 @@
       <c r="A171">
         <v>1039</v>
       </c>
-      <c r="E171" s="10">
+      <c r="E171" s="6">
         <v>44735.747382881942</v>
       </c>
-      <c r="F171" s="10">
+      <c r="F171" s="6">
         <v>44735.747382881942</v>
       </c>
       <c r="G171">
@@ -5327,7 +5319,7 @@
       <c r="I171" t="s">
         <v>23</v>
       </c>
-      <c r="J171" s="17">
+      <c r="J171" s="13">
         <v>30</v>
       </c>
     </row>
@@ -5335,10 +5327,10 @@
       <c r="A172">
         <v>1039</v>
       </c>
-      <c r="E172" s="10">
+      <c r="E172" s="6">
         <v>44735.747882314812</v>
       </c>
-      <c r="F172" s="10">
+      <c r="F172" s="6">
         <v>44735.747882314812</v>
       </c>
       <c r="G172">
@@ -5350,7 +5342,7 @@
       <c r="I172" t="s">
         <v>25</v>
       </c>
-      <c r="J172" s="17">
+      <c r="J172" s="13">
         <v>50</v>
       </c>
     </row>
@@ -5358,10 +5350,10 @@
       <c r="A173">
         <v>1040</v>
       </c>
-      <c r="E173" s="10">
+      <c r="E173" s="6">
         <v>44736.742823043984</v>
       </c>
-      <c r="F173" s="10">
+      <c r="F173" s="6">
         <v>44736.742823043984</v>
       </c>
       <c r="G173">
@@ -5373,7 +5365,7 @@
       <c r="I173" t="s">
         <v>15</v>
       </c>
-      <c r="J173" s="17">
+      <c r="J173" s="13">
         <v>50</v>
       </c>
     </row>
@@ -5381,10 +5373,10 @@
       <c r="A174">
         <v>1040</v>
       </c>
-      <c r="E174" s="10">
+      <c r="E174" s="6">
         <v>44736.742691574073</v>
       </c>
-      <c r="F174" s="10">
+      <c r="F174" s="6">
         <v>44736.742691574073</v>
       </c>
       <c r="G174">
@@ -5396,7 +5388,7 @@
       <c r="I174" t="s">
         <v>17</v>
       </c>
-      <c r="J174" s="17">
+      <c r="J174" s="13">
         <v>95</v>
       </c>
     </row>
@@ -5404,10 +5396,10 @@
       <c r="A175">
         <v>1040</v>
       </c>
-      <c r="E175" s="10">
+      <c r="E175" s="6">
         <v>44736.743309687503</v>
       </c>
-      <c r="F175" s="10">
+      <c r="F175" s="6">
         <v>44736.743309687503</v>
       </c>
       <c r="G175">
@@ -5419,7 +5411,7 @@
       <c r="I175" t="s">
         <v>19</v>
       </c>
-      <c r="J175" s="17">
+      <c r="J175" s="13">
         <v>99</v>
       </c>
     </row>
@@ -5427,10 +5419,10 @@
       <c r="A176">
         <v>1040</v>
       </c>
-      <c r="E176" s="10">
+      <c r="E176" s="6">
         <v>44736.743096481485</v>
       </c>
-      <c r="F176" s="10">
+      <c r="F176" s="6">
         <v>44736.743096481485</v>
       </c>
       <c r="G176">
@@ -5442,7 +5434,7 @@
       <c r="I176" t="s">
         <v>21</v>
       </c>
-      <c r="J176" s="17">
+      <c r="J176" s="13">
         <v>78</v>
       </c>
     </row>
@@ -5450,10 +5442,10 @@
       <c r="A177">
         <v>1040</v>
       </c>
-      <c r="E177" s="10">
+      <c r="E177" s="6">
         <v>44736.743202361111</v>
       </c>
-      <c r="F177" s="10">
+      <c r="F177" s="6">
         <v>44736.743202361111</v>
       </c>
       <c r="G177">
@@ -5465,7 +5457,7 @@
       <c r="I177" t="s">
         <v>23</v>
       </c>
-      <c r="J177" s="17">
+      <c r="J177" s="13">
         <v>83</v>
       </c>
     </row>
@@ -5473,10 +5465,10 @@
       <c r="A178">
         <v>1040</v>
       </c>
-      <c r="E178" s="10">
+      <c r="E178" s="6">
         <v>44736.74301583333</v>
       </c>
-      <c r="F178" s="10">
+      <c r="F178" s="6">
         <v>44736.74301583333</v>
       </c>
       <c r="G178">
@@ -5488,22 +5480,22 @@
       <c r="I178" t="s">
         <v>25</v>
       </c>
-      <c r="J178" s="17">
+      <c r="J178" s="13">
         <v>78</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179">
-        <v>1046</v>
-      </c>
-      <c r="E179" s="10">
-        <v>44736.783419976855</v>
-      </c>
-      <c r="F179" s="10">
-        <v>44736.783419976855</v>
+        <v>1045</v>
+      </c>
+      <c r="E179" s="6">
+        <v>44743.665580752313</v>
+      </c>
+      <c r="F179" s="6">
+        <v>44743.665580752313</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H179" t="s">
         <v>14</v>
@@ -5511,22 +5503,22 @@
       <c r="I179" t="s">
         <v>15</v>
       </c>
-      <c r="J179" s="17">
-        <v>13</v>
+      <c r="J179" s="13">
+        <v>28</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180">
-        <v>1046</v>
-      </c>
-      <c r="E180" s="10">
-        <v>44736.783980115739</v>
-      </c>
-      <c r="F180" s="10">
-        <v>44736.783980115739</v>
+        <v>1045</v>
+      </c>
+      <c r="E180" s="6">
+        <v>44743.665697615739</v>
+      </c>
+      <c r="F180" s="6">
+        <v>44743.665697615739</v>
       </c>
       <c r="G180">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H180" t="s">
         <v>16</v>
@@ -5534,22 +5526,22 @@
       <c r="I180" t="s">
         <v>17</v>
       </c>
-      <c r="J180" s="17">
-        <v>97</v>
+      <c r="J180" s="13">
+        <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181">
-        <v>1046</v>
-      </c>
-      <c r="E181" s="10">
-        <v>44736.783577986113</v>
-      </c>
-      <c r="F181" s="10">
-        <v>44736.783577986113</v>
+        <v>1045</v>
+      </c>
+      <c r="E181" s="6">
+        <v>44743.665053900462</v>
+      </c>
+      <c r="F181" s="6">
+        <v>44743.665053900462</v>
       </c>
       <c r="G181">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>18</v>
@@ -5557,22 +5549,22 @@
       <c r="I181" t="s">
         <v>19</v>
       </c>
-      <c r="J181" s="17">
-        <v>35</v>
+      <c r="J181" s="13">
+        <v>72</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182">
-        <v>1046</v>
-      </c>
-      <c r="E182" s="10">
-        <v>44736.783709097224</v>
-      </c>
-      <c r="F182" s="10">
-        <v>44736.783709097224</v>
+        <v>1045</v>
+      </c>
+      <c r="E182" s="6">
+        <v>44743.665830740742</v>
+      </c>
+      <c r="F182" s="6">
+        <v>44743.665830740742</v>
       </c>
       <c r="G182">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H182" t="s">
         <v>20</v>
@@ -5580,22 +5572,22 @@
       <c r="I182" t="s">
         <v>21</v>
       </c>
-      <c r="J182" s="17">
-        <v>14</v>
+      <c r="J182" s="13">
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183">
-        <v>1046</v>
-      </c>
-      <c r="E183" s="10">
-        <v>44736.783871319443</v>
-      </c>
-      <c r="F183" s="10">
-        <v>44736.783871319443</v>
+        <v>1045</v>
+      </c>
+      <c r="E183" s="6">
+        <v>44743.665427604166</v>
+      </c>
+      <c r="F183" s="6">
+        <v>44743.665427604166</v>
       </c>
       <c r="G183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>22</v>
@@ -5603,22 +5595,22 @@
       <c r="I183" t="s">
         <v>23</v>
       </c>
-      <c r="J183" s="17">
-        <v>12</v>
+      <c r="J183" s="13">
+        <v>47</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184">
-        <v>1046</v>
-      </c>
-      <c r="E184" s="10">
-        <v>44736.783210324073</v>
-      </c>
-      <c r="F184" s="10">
-        <v>44736.783210324073</v>
+        <v>1045</v>
+      </c>
+      <c r="E184" s="6">
+        <v>44743.665152175927</v>
+      </c>
+      <c r="F184" s="6">
+        <v>44743.665152175927</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>24</v>
@@ -5626,22 +5618,22 @@
       <c r="I184" t="s">
         <v>25</v>
       </c>
-      <c r="J184" s="17">
-        <v>10</v>
+      <c r="J184" s="13">
+        <v>36</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185">
-        <v>1048</v>
-      </c>
-      <c r="E185" s="10">
-        <v>44734.625561203706</v>
-      </c>
-      <c r="F185" s="10">
-        <v>44734.625561203706</v>
+        <v>1046</v>
+      </c>
+      <c r="E185" s="6">
+        <v>44736.783419976855</v>
+      </c>
+      <c r="F185" s="6">
+        <v>44736.783419976855</v>
       </c>
       <c r="G185">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H185" t="s">
         <v>14</v>
@@ -5649,22 +5641,22 @@
       <c r="I185" t="s">
         <v>15</v>
       </c>
-      <c r="J185" s="17">
-        <v>48</v>
+      <c r="J185" s="13">
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186">
-        <v>1048</v>
-      </c>
-      <c r="E186" s="10">
-        <v>44734.62499916667</v>
-      </c>
-      <c r="F186" s="10">
-        <v>44734.62499916667</v>
+        <v>1046</v>
+      </c>
+      <c r="E186" s="6">
+        <v>44736.783980115739</v>
+      </c>
+      <c r="F186" s="6">
+        <v>44736.783980115739</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H186" t="s">
         <v>16</v>
@@ -5672,22 +5664,22 @@
       <c r="I186" t="s">
         <v>17</v>
       </c>
-      <c r="J186" s="17">
-        <v>53</v>
+      <c r="J186" s="13">
+        <v>97</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187">
-        <v>1048</v>
-      </c>
-      <c r="E187" s="10">
-        <v>44734.624931655089</v>
-      </c>
-      <c r="F187" s="10">
-        <v>44734.624931655089</v>
+        <v>1046</v>
+      </c>
+      <c r="E187" s="6">
+        <v>44736.783577986113</v>
+      </c>
+      <c r="F187" s="6">
+        <v>44736.783577986113</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H187" t="s">
         <v>18</v>
@@ -5695,22 +5687,22 @@
       <c r="I187" t="s">
         <v>19</v>
       </c>
-      <c r="J187" s="17">
-        <v>95</v>
+      <c r="J187" s="13">
+        <v>35</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188">
-        <v>1048</v>
-      </c>
-      <c r="E188" s="10">
-        <v>44734.625486157405</v>
-      </c>
-      <c r="F188" s="10">
-        <v>44734.625486157405</v>
+        <v>1046</v>
+      </c>
+      <c r="E188" s="6">
+        <v>44736.783709097224</v>
+      </c>
+      <c r="F188" s="6">
+        <v>44736.783709097224</v>
       </c>
       <c r="G188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H188" t="s">
         <v>20</v>
@@ -5718,22 +5710,22 @@
       <c r="I188" t="s">
         <v>21</v>
       </c>
-      <c r="J188" s="17">
-        <v>5</v>
+      <c r="J188" s="13">
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189">
-        <v>1048</v>
-      </c>
-      <c r="E189" s="10">
-        <v>44734.624846736115</v>
-      </c>
-      <c r="F189" s="10">
-        <v>44734.624846736115</v>
+        <v>1046</v>
+      </c>
+      <c r="E189" s="6">
+        <v>44736.783871319443</v>
+      </c>
+      <c r="F189" s="6">
+        <v>44736.783871319443</v>
       </c>
       <c r="G189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H189" t="s">
         <v>22</v>
@@ -5741,22 +5733,22 @@
       <c r="I189" t="s">
         <v>23</v>
       </c>
-      <c r="J189" s="17">
-        <v>64</v>
+      <c r="J189" s="13">
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190">
-        <v>1048</v>
-      </c>
-      <c r="E190" s="10">
-        <v>44734.625403518519</v>
-      </c>
-      <c r="F190" s="10">
-        <v>44734.625403518519</v>
+        <v>1046</v>
+      </c>
+      <c r="E190" s="6">
+        <v>44736.783210324073</v>
+      </c>
+      <c r="F190" s="6">
+        <v>44736.783210324073</v>
       </c>
       <c r="G190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H190" t="s">
         <v>24</v>
@@ -5764,8 +5756,245 @@
       <c r="I190" t="s">
         <v>25</v>
       </c>
-      <c r="J190" s="17">
+      <c r="J190" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A191">
+        <v>1048</v>
+      </c>
+      <c r="E191" s="6">
+        <v>44734.625561203706</v>
+      </c>
+      <c r="F191" s="6">
+        <v>44734.625561203706</v>
+      </c>
+      <c r="G191">
+        <v>6</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A192">
+        <v>1048</v>
+      </c>
+      <c r="E192" s="6">
+        <v>44734.62499916667</v>
+      </c>
+      <c r="F192" s="6">
+        <v>44734.62499916667</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+      <c r="H192" t="s">
+        <v>16</v>
+      </c>
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A193">
+        <v>1048</v>
+      </c>
+      <c r="E193" s="6">
+        <v>44734.624931655089</v>
+      </c>
+      <c r="F193" s="6">
+        <v>44734.624931655089</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>18</v>
+      </c>
+      <c r="I193" t="s">
+        <v>19</v>
+      </c>
+      <c r="J193" s="13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A194">
+        <v>1048</v>
+      </c>
+      <c r="E194" s="6">
+        <v>44734.625486157405</v>
+      </c>
+      <c r="F194" s="6">
+        <v>44734.625486157405</v>
+      </c>
+      <c r="G194">
+        <v>5</v>
+      </c>
+      <c r="H194" t="s">
+        <v>20</v>
+      </c>
+      <c r="I194" t="s">
+        <v>21</v>
+      </c>
+      <c r="J194" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A195">
+        <v>1048</v>
+      </c>
+      <c r="E195" s="6">
+        <v>44734.624846736115</v>
+      </c>
+      <c r="F195" s="6">
+        <v>44734.624846736115</v>
+      </c>
+      <c r="G195">
+        <v>1</v>
+      </c>
+      <c r="H195" t="s">
+        <v>22</v>
+      </c>
+      <c r="I195" t="s">
+        <v>23</v>
+      </c>
+      <c r="J195" s="13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A196">
+        <v>1048</v>
+      </c>
+      <c r="E196" s="6">
+        <v>44734.625403518519</v>
+      </c>
+      <c r="F196" s="6">
+        <v>44734.625403518519</v>
+      </c>
+      <c r="G196">
+        <v>4</v>
+      </c>
+      <c r="H196" t="s">
+        <v>24</v>
+      </c>
+      <c r="I196" t="s">
+        <v>25</v>
+      </c>
+      <c r="J196" s="13">
         <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A197">
+        <v>1007</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J197" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A198">
+        <v>1007</v>
+      </c>
+      <c r="G198">
+        <v>1</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" s="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A199" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G199">
+        <v>4</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A200" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G200">
+        <v>5</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A201" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G201">
+        <v>6</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J201" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A202" s="1">
+        <v>1007</v>
+      </c>
+      <c r="G202">
+        <v>2</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J202" s="13">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5776,7 +6005,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J4 A5:A190 E5:J190" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J4 A5:A196 E5:J196" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>